--- a/assurance.xlsx
+++ b/assurance.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$CP$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$CP$241</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22571" uniqueCount="1846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24075" uniqueCount="1961">
   <si>
     <t>Codice</t>
   </si>
@@ -5555,6 +5555,351 @@
   </si>
   <si>
     <t xml:space="preserve">Eseguito cambio coppia secondaria vecchia 9/6 nuova 9/2 eseguita prova telefonica Codice collaudo: tk202508120067494412 </t>
+  </si>
+  <si>
+    <t>TT1004683086</t>
+  </si>
+  <si>
+    <t>92106915</t>
+  </si>
+  <si>
+    <t>13/08/2025</t>
+  </si>
+  <si>
+    <t>13/08/2025 17:30</t>
+  </si>
+  <si>
+    <t>13/08/2025 18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081281418324 </t>
+  </si>
+  <si>
+    <t>SWADW5041416485</t>
+  </si>
+  <si>
+    <t>093114755970</t>
+  </si>
+  <si>
+    <t>19/08/2025 18:38</t>
+  </si>
+  <si>
+    <t>13/08/2025 17:44</t>
+  </si>
+  <si>
+    <t>13/08/2025 20:50</t>
+  </si>
+  <si>
+    <t>12/08/2025 19:50</t>
+  </si>
+  <si>
+    <t>Riparato al box testato con l'utente codice collaudo tk202508120067512152 certificato con supporto Fastweb pin 6000</t>
+  </si>
+  <si>
+    <t>TT1004685274</t>
+  </si>
+  <si>
+    <t>92121482</t>
+  </si>
+  <si>
+    <t>s:ServiceOptimization.ErrorNumbers.55001-È necessario effettuare la Certificazione del Percorso di Rete mediante l’applicazione NAVWEB oppure dichiarare la causa della mancata Certificazione PdR (tramite l’apposito campo). Eseguire l’operazione richiesta per poter procedere alla chiusura della WR.</t>
+  </si>
+  <si>
+    <t>13/08/2025 16:00</t>
+  </si>
+  <si>
+    <t>13/08/2025 16:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081381533459 </t>
+  </si>
+  <si>
+    <t>SWADW5041418879</t>
+  </si>
+  <si>
+    <t>093114742767</t>
+  </si>
+  <si>
+    <t>14/08/2025 12:26</t>
+  </si>
+  <si>
+    <t>13/08/2025 17:38</t>
+  </si>
+  <si>
+    <t>14/08/2025 13:36</t>
+  </si>
+  <si>
+    <t>13/08/2025 13:36</t>
+  </si>
+  <si>
+    <t>sostituita secondaria zona 1.14 box 2 vecchia coppia 10 nuova 7 testato con l'utente codice collaudo tk202508130067526710</t>
+  </si>
+  <si>
+    <t>ASSENZA DI PORTANTE **CPE_SN:**</t>
+  </si>
+  <si>
+    <t>TT1004685312</t>
+  </si>
+  <si>
+    <t>92121770</t>
+  </si>
+  <si>
+    <t>13/08/2025 15:00</t>
+  </si>
+  <si>
+    <t>13/08/2025 15:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081381535230 </t>
+  </si>
+  <si>
+    <t>SWADW5041418946</t>
+  </si>
+  <si>
+    <t>093114754821</t>
+  </si>
+  <si>
+    <t>14/08/2025 12:37</t>
+  </si>
+  <si>
+    <t>13/08/2025 15:49</t>
+  </si>
+  <si>
+    <t>14/08/2025 13:46</t>
+  </si>
+  <si>
+    <t>13/08/2025 13:46</t>
+  </si>
+  <si>
+    <t>guasto di cavo secondario zona 1.16 box 8d1 tutto interrotto il nostro utente è testato sulla coppia 9</t>
+  </si>
+  <si>
+    <t>ASSENZA DI PORTANTE **CPE_SN:ZTEEGA0N9F12831**</t>
+  </si>
+  <si>
+    <t>TT1004600717</t>
+  </si>
+  <si>
+    <t>91570790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AZIENDA AGRICOLA ISOLA DELLA  </t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>CBF001026951666</t>
+  </si>
+  <si>
+    <t>0931545040</t>
+  </si>
+  <si>
+    <t>24/07/2025 23:59</t>
+  </si>
+  <si>
+    <t>13/08/2025 17:05</t>
+  </si>
+  <si>
+    <t>23/07/2025 10:00</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>CBF</t>
+  </si>
+  <si>
+    <t>Riparato in armadio Codice Collaudo: tk202507230066976165</t>
+  </si>
+  <si>
+    <t>TT1004653119</t>
+  </si>
+  <si>
+    <t>91908616</t>
+  </si>
+  <si>
+    <t>13/08/2025 11:30</t>
+  </si>
+  <si>
+    <t>13/08/2025 12:30</t>
+  </si>
+  <si>
+    <t>GRUSSO.111927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025080580060569 </t>
+  </si>
+  <si>
+    <t>SWADW5041380903</t>
+  </si>
+  <si>
+    <t>093114740699</t>
+  </si>
+  <si>
+    <t>12/08/2025 09:00</t>
+  </si>
+  <si>
+    <t>13/08/2025 12:06</t>
+  </si>
+  <si>
+    <t>06/08/2025 10:02</t>
+  </si>
+  <si>
+    <t>05/08/2025 09:02</t>
+  </si>
+  <si>
+    <t>Utente non reperibile eseguito collaudo al box. Certificato con supporto pin 8546 Codice collaudo: tk202508050067313898</t>
+  </si>
+  <si>
+    <t>TT1004681337</t>
+  </si>
+  <si>
+    <t>92095768</t>
+  </si>
+  <si>
+    <t>13/08/2025 10:00</t>
+  </si>
+  <si>
+    <t>13/08/2025 11:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081281343201 </t>
+  </si>
+  <si>
+    <t>SWADW5041414356</t>
+  </si>
+  <si>
+    <t>093114733899</t>
+  </si>
+  <si>
+    <t>19/08/2025 12:35</t>
+  </si>
+  <si>
+    <t>13/08/2025 13:16</t>
+  </si>
+  <si>
+    <t>12/08/2025 13:46</t>
+  </si>
+  <si>
+    <t>C18100000054538</t>
+  </si>
+  <si>
+    <t>Eseguita sostituzione CPE guasta old Revolution SN:C18100000054538 new SHG3000 SN:R21060000018847 Codice collaudo: tk202508120067501015</t>
+  </si>
+  <si>
+    <t>TT1004682989</t>
+  </si>
+  <si>
+    <t>92106186</t>
+  </si>
+  <si>
+    <t>13/08/2025 13:00</t>
+  </si>
+  <si>
+    <t>13/08/2025 14:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081281412599 </t>
+  </si>
+  <si>
+    <t>SWADW5041416340</t>
+  </si>
+  <si>
+    <t>093114746883</t>
+  </si>
+  <si>
+    <t>19/08/2025 18:05</t>
+  </si>
+  <si>
+    <t>13/08/2025 15:57</t>
+  </si>
+  <si>
+    <t>14/08/2025 19:16</t>
+  </si>
+  <si>
+    <t>12/08/2025 19:16</t>
+  </si>
+  <si>
+    <t>Riparato al box eseguita prova telefonica Codice collaudo: tk202508120067511424</t>
+  </si>
+  <si>
+    <t>TT1004685035</t>
+  </si>
+  <si>
+    <t>92120033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081381510163 </t>
+  </si>
+  <si>
+    <t>SWADW5041418342</t>
+  </si>
+  <si>
+    <t>093114734914</t>
+  </si>
+  <si>
+    <t>14/08/2025 10:51</t>
+  </si>
+  <si>
+    <t>13/08/2025 15:26</t>
+  </si>
+  <si>
+    <t>14/08/2025 07:50</t>
+  </si>
+  <si>
+    <t>13/08/2025 12:50</t>
+  </si>
+  <si>
+    <t>Riparato al box eseguita prova telefonica Codice collaudo: tk202508130067525265</t>
+  </si>
+  <si>
+    <t>TT1004665941</t>
+  </si>
+  <si>
+    <t>91998277</t>
+  </si>
+  <si>
+    <t>CRH001028042499</t>
+  </si>
+  <si>
+    <t>07/08/2025 15:50</t>
+  </si>
+  <si>
+    <t>Codice collaudo: tk202508070067403553 Sostituito monofibra esterno mt60 palifica da roe a sede cliente, segnale ottico e servizi ok provato con il cliente</t>
+  </si>
+  <si>
+    <t>TT1004682836</t>
+  </si>
+  <si>
+    <t>92105421</t>
+  </si>
+  <si>
+    <t>13/08/2025 13:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANNAMARIA MORREALE </t>
+  </si>
+  <si>
+    <t>CRH001028390300</t>
+  </si>
+  <si>
+    <t>0931715523</t>
+  </si>
+  <si>
+    <t>13/08/2025 23:59</t>
+  </si>
+  <si>
+    <t>13/08/2025 14:26</t>
+  </si>
+  <si>
+    <t>12/08/2025 18:30</t>
+  </si>
+  <si>
+    <t>Codice collaudo: tk202508120067510659 rifatto connettore al roe allineamento stabilità servizi ok provato con il cliente</t>
   </si>
 </sst>
 </file>
@@ -5891,10 +6236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP241"/>
+  <dimension ref="A1:CP257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="C233" sqref="C233"/>
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="B244" sqref="B244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -74186,8 +74531,4552 @@
         <v>99</v>
       </c>
     </row>
+    <row r="242" spans="1:94">
+      <c r="A242" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I242" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J242" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K242" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L242" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M242" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N242" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O242" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="P242" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q242" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="R242" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S242" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T242" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U242" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="V242" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W242" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X242" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y242" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z242" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA242" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB242" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC242" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD242" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE242" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF242" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG242" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH242" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI242" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ242" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK242" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL242" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM242" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN242" s="1" t="s">
+        <v>1852</v>
+      </c>
+      <c r="AO242" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="AP242" s="1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="AQ242" s="1" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AR242" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS242" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT242" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU242" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AV242" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AW242" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AX242" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AY242" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ242" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA242" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB242" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC242" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD242" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE242" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="BF242" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG242" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH242" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI242" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ242" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK242" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL242" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM242" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN242" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO242" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP242" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ242" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR242" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS242" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT242" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU242" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV242" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW242" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BX242" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY242" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BZ242" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA242" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB242" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC242" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="CD242" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE242" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF242" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG242" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH242" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI242" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ242" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK242" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL242" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM242" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="CN242" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO242" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP242" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="243" spans="1:94">
+      <c r="A243" s="1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H243" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I243" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J243" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K243" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="L243" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M243" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N243" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O243" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="P243" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q243" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="R243" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S243" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T243" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U243" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="V243" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W243" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X243" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y243" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z243" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA243" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB243" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC243" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD243" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE243" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF243" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG243" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH243" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI243" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ243" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK243" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL243" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM243" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN243" s="1" t="s">
+        <v>1865</v>
+      </c>
+      <c r="AO243" s="1" t="s">
+        <v>1866</v>
+      </c>
+      <c r="AP243" s="1" t="s">
+        <v>1867</v>
+      </c>
+      <c r="AQ243" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="AR243" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS243" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT243" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU243" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV243" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW243" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AX243" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="AY243" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ243" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA243" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB243" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC243" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD243" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE243" s="1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="BF243" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG243" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH243" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI243" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ243" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK243" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL243" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM243" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN243" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO243" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP243" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ243" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR243" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS243" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT243" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU243" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV243" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW243" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX243" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY243" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ243" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA243" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB243" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC243" s="1" t="s">
+        <v>1871</v>
+      </c>
+      <c r="CD243" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE243" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF243" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG243" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH243" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI243" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ243" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CK243" s="1" t="s">
+        <v>1872</v>
+      </c>
+      <c r="CL243" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM243" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN243" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO243" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP243" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="244" spans="1:94">
+      <c r="A244" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H244" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I244" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J244" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K244" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L244" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M244" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N244" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O244" s="1" t="s">
+        <v>1875</v>
+      </c>
+      <c r="P244" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q244" s="1" t="s">
+        <v>1876</v>
+      </c>
+      <c r="R244" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S244" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T244" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U244" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="V244" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W244" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X244" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y244" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z244" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA244" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB244" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC244" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD244" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE244" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF244" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG244" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH244" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI244" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ244" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK244" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL244" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM244" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN244" s="1" t="s">
+        <v>1878</v>
+      </c>
+      <c r="AO244" s="1" t="s">
+        <v>1879</v>
+      </c>
+      <c r="AP244" s="1" t="s">
+        <v>1880</v>
+      </c>
+      <c r="AQ244" s="1" t="s">
+        <v>1881</v>
+      </c>
+      <c r="AR244" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS244" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT244" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU244" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV244" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW244" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AX244" s="1" t="s">
+        <v>1882</v>
+      </c>
+      <c r="AY244" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ244" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="BA244" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB244" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC244" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD244" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE244" s="1" t="s">
+        <v>1883</v>
+      </c>
+      <c r="BF244" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG244" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH244" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI244" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ244" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK244" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL244" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM244" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN244" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO244" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP244" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ244" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR244" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS244" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT244" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU244" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV244" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW244" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX244" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY244" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ244" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA244" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB244" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC244" s="1" t="s">
+        <v>1884</v>
+      </c>
+      <c r="CD244" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE244" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF244" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG244" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH244" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI244" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ244" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CK244" s="1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="CL244" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM244" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN244" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO244" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP244" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="245" spans="1:94">
+      <c r="A245" s="1" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H245" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I245" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J245" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L245" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M245" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O245" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="P245" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q245" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="R245" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S245" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="T245" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U245" s="1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="V245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W245" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X245" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC245" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="AD245" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE245" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF245" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG245" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH245" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI245" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ245" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL245" s="1" t="s">
+        <v>1890</v>
+      </c>
+      <c r="AM245" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN245" s="1" t="s">
+        <v>1891</v>
+      </c>
+      <c r="AO245" s="1" t="s">
+        <v>1892</v>
+      </c>
+      <c r="AP245" s="1" t="s">
+        <v>1893</v>
+      </c>
+      <c r="AQ245" s="1" t="s">
+        <v>1894</v>
+      </c>
+      <c r="AR245" s="1" t="s">
+        <v>1893</v>
+      </c>
+      <c r="AS245" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT245" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA245" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC245" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BD245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE245" s="1" t="s">
+        <v>1895</v>
+      </c>
+      <c r="BF245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL245" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN245" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BO245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP245" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ245" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR245" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU245" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV245" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW245" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="BX245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY245" s="1" t="s">
+        <v>1897</v>
+      </c>
+      <c r="BZ245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC245" s="1" t="s">
+        <v>1898</v>
+      </c>
+      <c r="CD245" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI245" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP245" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="246" spans="1:94">
+      <c r="A246" s="1" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H246" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I246" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J246" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K246" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L246" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M246" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N246" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O246" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="P246" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q246" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="R246" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S246" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="T246" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="U246" s="1" t="s">
+        <v>1904</v>
+      </c>
+      <c r="V246" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W246" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X246" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y246" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z246" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA246" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB246" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC246" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD246" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE246" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF246" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG246" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH246" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI246" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ246" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK246" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL246" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM246" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN246" s="1" t="s">
+        <v>1905</v>
+      </c>
+      <c r="AO246" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="AP246" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="AQ246" s="1" t="s">
+        <v>1908</v>
+      </c>
+      <c r="AR246" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS246" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT246" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU246" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AV246" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AW246" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AX246" s="1" t="s">
+        <v>1909</v>
+      </c>
+      <c r="AY246" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ246" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA246" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB246" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC246" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD246" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE246" s="1" t="s">
+        <v>1910</v>
+      </c>
+      <c r="BF246" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG246" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH246" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI246" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ246" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK246" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL246" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM246" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN246" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO246" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP246" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ246" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR246" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS246" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT246" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU246" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV246" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW246" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BX246" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY246" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BZ246" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA246" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB246" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC246" s="1" t="s">
+        <v>1911</v>
+      </c>
+      <c r="CD246" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE246" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF246" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG246" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH246" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI246" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ246" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK246" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL246" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM246" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CN246" s="1" t="s">
+        <v>1911</v>
+      </c>
+      <c r="CO246" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP246" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="247" spans="1:94">
+      <c r="A247" s="1" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H247" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I247" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J247" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K247" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L247" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M247" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N247" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O247" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="P247" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q247" s="1" t="s">
+        <v>1915</v>
+      </c>
+      <c r="R247" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S247" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="T247" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="U247" s="1" t="s">
+        <v>1916</v>
+      </c>
+      <c r="V247" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W247" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X247" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y247" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z247" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA247" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB247" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC247" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD247" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE247" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF247" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG247" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH247" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI247" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ247" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK247" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL247" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM247" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN247" s="1" t="s">
+        <v>1917</v>
+      </c>
+      <c r="AO247" s="1" t="s">
+        <v>1918</v>
+      </c>
+      <c r="AP247" s="1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="AQ247" s="1" t="s">
+        <v>1920</v>
+      </c>
+      <c r="AR247" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS247" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT247" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AU247" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV247" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW247" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AX247" s="1" t="s">
+        <v>1882</v>
+      </c>
+      <c r="AY247" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ247" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA247" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB247" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC247" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD247" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE247" s="1" t="s">
+        <v>1921</v>
+      </c>
+      <c r="BF247" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG247" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH247" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI247" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ247" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK247" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL247" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM247" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN247" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO247" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP247" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ247" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR247" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS247" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT247" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="BU247" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV247" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW247" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BX247" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY247" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BZ247" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CA247" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB247" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC247" s="1" t="s">
+        <v>1923</v>
+      </c>
+      <c r="CD247" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE247" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF247" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG247" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH247" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI247" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ247" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK247" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL247" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM247" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN247" s="1" t="s">
+        <v>1923</v>
+      </c>
+      <c r="CO247" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP247" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="248" spans="1:94">
+      <c r="A248" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I248" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J248" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K248" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L248" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M248" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N248" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O248" s="1" t="s">
+        <v>1926</v>
+      </c>
+      <c r="P248" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q248" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="R248" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S248" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="T248" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="U248" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="V248" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W248" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X248" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y248" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z248" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA248" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB248" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC248" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD248" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE248" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF248" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG248" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH248" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI248" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ248" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK248" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL248" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM248" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN248" s="1" t="s">
+        <v>1929</v>
+      </c>
+      <c r="AO248" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="AP248" s="1" t="s">
+        <v>1931</v>
+      </c>
+      <c r="AQ248" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="AR248" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS248" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT248" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AU248" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV248" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW248" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AX248" s="1" t="s">
+        <v>1933</v>
+      </c>
+      <c r="AY248" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ248" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA248" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB248" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC248" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD248" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE248" s="1" t="s">
+        <v>1934</v>
+      </c>
+      <c r="BF248" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG248" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH248" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI248" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ248" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK248" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL248" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM248" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN248" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO248" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP248" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ248" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR248" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS248" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT248" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU248" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV248" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW248" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BX248" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY248" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BZ248" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA248" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB248" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC248" s="1" t="s">
+        <v>1935</v>
+      </c>
+      <c r="CD248" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE248" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF248" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG248" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH248" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI248" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ248" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK248" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL248" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM248" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN248" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO248" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP248" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="249" spans="1:94">
+      <c r="A249" s="1" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H249" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I249" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J249" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L249" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M249" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O249" s="1" t="s">
+        <v>1876</v>
+      </c>
+      <c r="P249" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q249" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="R249" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S249" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="T249" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="U249" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="V249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W249" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X249" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC249" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD249" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE249" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF249" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG249" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH249" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI249" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ249" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL249" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM249" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN249" s="1" t="s">
+        <v>1939</v>
+      </c>
+      <c r="AO249" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="AP249" s="1" t="s">
+        <v>1941</v>
+      </c>
+      <c r="AQ249" s="1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="AR249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS249" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT249" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AU249" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AV249" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW249" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AX249" s="1" t="s">
+        <v>1943</v>
+      </c>
+      <c r="AY249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA249" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC249" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD249" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE249" s="1" t="s">
+        <v>1944</v>
+      </c>
+      <c r="BF249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL249" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP249" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ249" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR249" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU249" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV249" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW249" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY249" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC249" s="1" t="s">
+        <v>1945</v>
+      </c>
+      <c r="CD249" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE249" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CF249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI249" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM249" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="CN249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP249" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="250" spans="1:94">
+      <c r="A250" s="1" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I250" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J250" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K250" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L250" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M250" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N250" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O250" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="P250" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q250" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="R250" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S250" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T250" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="U250" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="V250" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W250" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X250" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y250" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z250" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA250" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB250" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC250" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD250" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE250" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF250" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG250" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH250" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI250" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ250" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK250" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL250" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM250" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN250" s="1" t="s">
+        <v>1948</v>
+      </c>
+      <c r="AO250" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="AP250" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="AQ250" s="1" t="s">
+        <v>1894</v>
+      </c>
+      <c r="AR250" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="AS250" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT250" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU250" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV250" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW250" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX250" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY250" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ250" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA250" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB250" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC250" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BD250" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE250" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="BF250" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="BG250" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BH250" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI250" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ250" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK250" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL250" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="BM250" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BN250" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BO250" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP250" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BQ250" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR250" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS250" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT250" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU250" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV250" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW250" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BX250" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY250" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BZ250" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA250" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB250" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC250" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="CD250" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE250" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF250" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG250" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH250" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI250" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ250" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK250" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL250" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM250" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN250" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO250" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP250" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="251" spans="1:94">
+      <c r="A251" s="1" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H251" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I251" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J251" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L251" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M251" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O251" s="1" t="s">
+        <v>1926</v>
+      </c>
+      <c r="P251" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q251" s="1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="R251" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S251" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T251" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="U251" s="1" t="s">
+        <v>1954</v>
+      </c>
+      <c r="V251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W251" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X251" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC251" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD251" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE251" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF251" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG251" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH251" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI251" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ251" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL251" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM251" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN251" s="1" t="s">
+        <v>1955</v>
+      </c>
+      <c r="AO251" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="AP251" s="1" t="s">
+        <v>1957</v>
+      </c>
+      <c r="AQ251" s="1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="AR251" s="1" t="s">
+        <v>1957</v>
+      </c>
+      <c r="AS251" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT251" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA251" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC251" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BD251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE251" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="BF251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL251" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="BM251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN251" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BO251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP251" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ251" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR251" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU251" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV251" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW251" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY251" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BZ251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC251" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="CD251" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI251" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP251" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="252" spans="1:94">
+      <c r="A252" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H252" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I252" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J252" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K252" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L252" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M252" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N252" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O252" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="P252" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q252" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="R252" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S252" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T252" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="U252" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="V252" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W252" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X252" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y252" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z252" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA252" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB252" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC252" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD252" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE252" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF252" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG252" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH252" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI252" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ252" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK252" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL252" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM252" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN252" s="1" t="s">
+        <v>1852</v>
+      </c>
+      <c r="AO252" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="AP252" s="1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="AQ252" s="1" t="s">
+        <v>1855</v>
+      </c>
+      <c r="AR252" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS252" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT252" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU252" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AV252" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AW252" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AX252" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="AY252" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ252" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA252" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB252" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC252" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD252" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE252" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="BF252" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG252" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH252" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI252" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ252" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK252" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL252" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM252" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN252" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO252" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP252" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ252" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR252" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS252" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT252" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU252" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV252" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW252" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BX252" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY252" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BZ252" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA252" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB252" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC252" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="CD252" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE252" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF252" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG252" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH252" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI252" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ252" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK252" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL252" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM252" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="CN252" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO252" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP252" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="253" spans="1:94">
+      <c r="A253" s="1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H253" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I253" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J253" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K253" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="L253" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M253" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N253" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O253" s="1" t="s">
+        <v>1862</v>
+      </c>
+      <c r="P253" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q253" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="R253" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S253" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T253" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="U253" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="V253" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W253" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X253" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y253" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z253" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA253" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB253" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC253" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD253" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE253" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF253" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG253" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH253" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI253" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ253" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK253" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL253" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM253" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN253" s="1" t="s">
+        <v>1865</v>
+      </c>
+      <c r="AO253" s="1" t="s">
+        <v>1866</v>
+      </c>
+      <c r="AP253" s="1" t="s">
+        <v>1867</v>
+      </c>
+      <c r="AQ253" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="AR253" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS253" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT253" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU253" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV253" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW253" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AX253" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="AY253" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ253" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA253" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB253" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC253" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD253" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE253" s="1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="BF253" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG253" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH253" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI253" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ253" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK253" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL253" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM253" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN253" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO253" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP253" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ253" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR253" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS253" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT253" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU253" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV253" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW253" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX253" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY253" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ253" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA253" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB253" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC253" s="1" t="s">
+        <v>1871</v>
+      </c>
+      <c r="CD253" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE253" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF253" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG253" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH253" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI253" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ253" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CK253" s="1" t="s">
+        <v>1872</v>
+      </c>
+      <c r="CL253" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM253" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN253" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO253" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP253" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="254" spans="1:94">
+      <c r="A254" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H254" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I254" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J254" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K254" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L254" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M254" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N254" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O254" s="1" t="s">
+        <v>1875</v>
+      </c>
+      <c r="P254" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q254" s="1" t="s">
+        <v>1876</v>
+      </c>
+      <c r="R254" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S254" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T254" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="U254" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="V254" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W254" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X254" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y254" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z254" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA254" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB254" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC254" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD254" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE254" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF254" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG254" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH254" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI254" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ254" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK254" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL254" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM254" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN254" s="1" t="s">
+        <v>1878</v>
+      </c>
+      <c r="AO254" s="1" t="s">
+        <v>1879</v>
+      </c>
+      <c r="AP254" s="1" t="s">
+        <v>1880</v>
+      </c>
+      <c r="AQ254" s="1" t="s">
+        <v>1881</v>
+      </c>
+      <c r="AR254" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS254" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT254" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU254" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV254" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW254" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AX254" s="1" t="s">
+        <v>1882</v>
+      </c>
+      <c r="AY254" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ254" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="BA254" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB254" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC254" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD254" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE254" s="1" t="s">
+        <v>1883</v>
+      </c>
+      <c r="BF254" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG254" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH254" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI254" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ254" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK254" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL254" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM254" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN254" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO254" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP254" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ254" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR254" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS254" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT254" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU254" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV254" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW254" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX254" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY254" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ254" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA254" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB254" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC254" s="1" t="s">
+        <v>1884</v>
+      </c>
+      <c r="CD254" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE254" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF254" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG254" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH254" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI254" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ254" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CK254" s="1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="CL254" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM254" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN254" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO254" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP254" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="255" spans="1:94">
+      <c r="A255" s="1" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H255" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I255" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J255" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L255" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M255" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O255" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="P255" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q255" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="R255" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S255" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="T255" s="1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="U255" s="1" t="s">
+        <v>1888</v>
+      </c>
+      <c r="V255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W255" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X255" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC255" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="AD255" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE255" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF255" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG255" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH255" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI255" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ255" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL255" s="1" t="s">
+        <v>1890</v>
+      </c>
+      <c r="AM255" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN255" s="1" t="s">
+        <v>1891</v>
+      </c>
+      <c r="AO255" s="1" t="s">
+        <v>1892</v>
+      </c>
+      <c r="AP255" s="1" t="s">
+        <v>1893</v>
+      </c>
+      <c r="AQ255" s="1" t="s">
+        <v>1894</v>
+      </c>
+      <c r="AR255" s="1" t="s">
+        <v>1893</v>
+      </c>
+      <c r="AS255" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT255" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA255" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC255" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BD255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE255" s="1" t="s">
+        <v>1895</v>
+      </c>
+      <c r="BF255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL255" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN255" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BO255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP255" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ255" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR255" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU255" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV255" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW255" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="BX255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY255" s="1" t="s">
+        <v>1897</v>
+      </c>
+      <c r="BZ255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC255" s="1" t="s">
+        <v>1898</v>
+      </c>
+      <c r="CD255" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI255" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO255" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP255" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="256" spans="1:94">
+      <c r="A256" s="1" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H256" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I256" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J256" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K256" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L256" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M256" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N256" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O256" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="P256" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q256" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="R256" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S256" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T256" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="U256" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="V256" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W256" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X256" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y256" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z256" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA256" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB256" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC256" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD256" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE256" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF256" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG256" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH256" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI256" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ256" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK256" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL256" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM256" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN256" s="1" t="s">
+        <v>1948</v>
+      </c>
+      <c r="AO256" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="AP256" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="AQ256" s="1" t="s">
+        <v>1894</v>
+      </c>
+      <c r="AR256" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="AS256" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT256" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU256" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV256" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW256" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX256" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY256" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ256" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA256" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB256" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC256" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BD256" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE256" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="BF256" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="BG256" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BH256" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI256" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ256" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK256" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL256" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="BM256" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BN256" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BO256" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP256" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BQ256" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR256" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS256" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT256" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU256" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV256" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW256" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BX256" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY256" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BZ256" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA256" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB256" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC256" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="CD256" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE256" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF256" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG256" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH256" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI256" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ256" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK256" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL256" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM256" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN256" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO256" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP256" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="257" spans="1:94">
+      <c r="A257" s="1" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G257" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H257" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I257" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J257" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L257" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M257" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O257" s="1" t="s">
+        <v>1926</v>
+      </c>
+      <c r="P257" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q257" s="1" t="s">
+        <v>1953</v>
+      </c>
+      <c r="R257" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S257" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T257" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="U257" s="1" t="s">
+        <v>1954</v>
+      </c>
+      <c r="V257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W257" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X257" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC257" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD257" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE257" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF257" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG257" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH257" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI257" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ257" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL257" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM257" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN257" s="1" t="s">
+        <v>1955</v>
+      </c>
+      <c r="AO257" s="1" t="s">
+        <v>1956</v>
+      </c>
+      <c r="AP257" s="1" t="s">
+        <v>1957</v>
+      </c>
+      <c r="AQ257" s="1" t="s">
+        <v>1958</v>
+      </c>
+      <c r="AR257" s="1" t="s">
+        <v>1957</v>
+      </c>
+      <c r="AS257" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT257" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA257" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC257" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BD257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE257" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="BF257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL257" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="BM257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN257" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BO257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP257" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ257" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR257" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU257" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV257" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW257" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY257" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BZ257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC257" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="CD257" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI257" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO257" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP257" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:CP1">
+  <autoFilter ref="A1:CP241">
     <sortState ref="A2:CP241">
       <sortCondition ref="C1"/>
     </sortState>

--- a/assurance.xlsx
+++ b/assurance.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$CP$241</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$CP$285</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24075" uniqueCount="1961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26707" uniqueCount="2181">
   <si>
     <t>Codice</t>
   </si>
@@ -5900,16 +5900,681 @@
   </si>
   <si>
     <t>Codice collaudo: tk202508120067510659 rifatto connettore al roe allineamento stabilità servizi ok provato con il cliente</t>
+  </si>
+  <si>
+    <t>14/08/2025</t>
+  </si>
+  <si>
+    <t>14/08/2025 12:00</t>
+  </si>
+  <si>
+    <t>14/08/2025 13:00</t>
+  </si>
+  <si>
+    <t>14/08/2025 10:00</t>
+  </si>
+  <si>
+    <t>14/08/2025 14:00</t>
+  </si>
+  <si>
+    <t>14/08/2025 00:00</t>
+  </si>
+  <si>
+    <t>14/08/2025 12:14</t>
+  </si>
+  <si>
+    <t>TT1004678720</t>
+  </si>
+  <si>
+    <t>92077427</t>
+  </si>
+  <si>
+    <t>14/08/2025 09:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081181204149 </t>
+  </si>
+  <si>
+    <t>SWADW5041411029</t>
+  </si>
+  <si>
+    <t>093114728922</t>
+  </si>
+  <si>
+    <t>13/08/2025 00:45</t>
+  </si>
+  <si>
+    <t>14/08/2025 10:31</t>
+  </si>
+  <si>
+    <t>12/08/2025 17:56</t>
+  </si>
+  <si>
+    <t>11/08/2025 17:56</t>
+  </si>
+  <si>
+    <t>riparato al box testato con l'utente codice collaudo tk202508110067482683</t>
+  </si>
+  <si>
+    <t>TT1004682710</t>
+  </si>
+  <si>
+    <t>92104680</t>
+  </si>
+  <si>
+    <t>14/08/2025 16:00</t>
+  </si>
+  <si>
+    <t>14/08/2025 17:30</t>
+  </si>
+  <si>
+    <t>13/08/2025 12:43</t>
+  </si>
+  <si>
+    <t>14/08/2025 15:52</t>
+  </si>
+  <si>
+    <t>12/08/2025 17:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIN 438. Problema in sede cliente. Linea esterna ok, il cliente è partito ed ha spento il modem. Ok test. PIN </t>
+  </si>
+  <si>
+    <t>TT1004685422</t>
+  </si>
+  <si>
+    <t>92122718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081281448207 </t>
+  </si>
+  <si>
+    <t>SWADW5041417139</t>
+  </si>
+  <si>
+    <t>093114756460</t>
+  </si>
+  <si>
+    <t>19/08/2025 22:47</t>
+  </si>
+  <si>
+    <t>14/08/2025 14:21</t>
+  </si>
+  <si>
+    <t>13/08/2025 14:10</t>
+  </si>
+  <si>
+    <t>sostituita presa testato con l'utente codice collaudo tk202508130067527946</t>
+  </si>
+  <si>
+    <t>TT1004685929</t>
+  </si>
+  <si>
+    <t>92125591</t>
+  </si>
+  <si>
+    <t>14/08/2025 09:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081381555786 </t>
+  </si>
+  <si>
+    <t>C.CATALINI</t>
+  </si>
+  <si>
+    <t>SWADW5041419487</t>
+  </si>
+  <si>
+    <t>093114757231</t>
+  </si>
+  <si>
+    <t>14/08/2025 14:10</t>
+  </si>
+  <si>
+    <t>14/08/2025 11:59</t>
+  </si>
+  <si>
+    <t>RCC IVREA SME</t>
+  </si>
+  <si>
+    <t>14/08/2025 15:20</t>
+  </si>
+  <si>
+    <t>WIN2310TS2</t>
+  </si>
+  <si>
+    <t>13/08/2025 15:20</t>
+  </si>
+  <si>
+    <t>riparato in armadio eseguite prove di funzionamento con l'utente codice collaudo tk202508130067530819 utente si sta recando fuori sede fino a sabato e sta spegnendo il modem</t>
+  </si>
+  <si>
+    <t>TT1004686839</t>
+  </si>
+  <si>
+    <t>92131258</t>
+  </si>
+  <si>
+    <t>14/08/2025 10:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081381593846 </t>
+  </si>
+  <si>
+    <t>SWADW5041420562</t>
+  </si>
+  <si>
+    <t>093114744064</t>
+  </si>
+  <si>
+    <t>15/08/2025 01:21</t>
+  </si>
+  <si>
+    <t>14/08/2025 18:30</t>
+  </si>
+  <si>
+    <t>13/08/2025 18:30</t>
+  </si>
+  <si>
+    <t>guasto di cavo secondario zona 1.06 tutta la decade 30-39 in corto circuito il nostro utente è testato sul box 38 coppia 1</t>
+  </si>
+  <si>
+    <t>ASSENZA DI PORTANTE **CPE_SN:S220Y22074212**</t>
+  </si>
+  <si>
+    <t>TT1004688493</t>
+  </si>
+  <si>
+    <t>92142420</t>
+  </si>
+  <si>
+    <t>14/08/2025 13:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081481691903 </t>
+  </si>
+  <si>
+    <t>SWADW5041422620</t>
+  </si>
+  <si>
+    <t>093114743642</t>
+  </si>
+  <si>
+    <t>21/08/2025 11:08</t>
+  </si>
+  <si>
+    <t>14/08/2025 14:23</t>
+  </si>
+  <si>
+    <t>16/08/2025 12:20</t>
+  </si>
+  <si>
+    <t>WIN2020IVR</t>
+  </si>
+  <si>
+    <t>14/08/2025 12:20</t>
+  </si>
+  <si>
+    <t>riparato al box testato con l'utente codice collaudo tk202508140067547648</t>
+  </si>
+  <si>
+    <t>ASSENZA RANDOMICA DI PORTANTE **CPE_SN:EG9JM1L05770**</t>
+  </si>
+  <si>
+    <t>TT1004688797</t>
+  </si>
+  <si>
+    <t>92144357</t>
+  </si>
+  <si>
+    <t>14/08/2025 17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081481705059 </t>
+  </si>
+  <si>
+    <t>SWADW5041423311</t>
+  </si>
+  <si>
+    <t>093114728692</t>
+  </si>
+  <si>
+    <t>15/08/2025 12:15</t>
+  </si>
+  <si>
+    <t>14/08/2025 16:48</t>
+  </si>
+  <si>
+    <t>15/08/2025 13:24</t>
+  </si>
+  <si>
+    <t>14/08/2025 13:24</t>
+  </si>
+  <si>
+    <t>Sostituita presa testato con l'utente codice collaudo tk202508140067549585</t>
+  </si>
+  <si>
+    <t>TT1004680558</t>
+  </si>
+  <si>
+    <t>92090732</t>
+  </si>
+  <si>
+    <t>14/08/2025 11:00</t>
+  </si>
+  <si>
+    <t>14/08/2025 11:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIOVANNI BATTISTA SALVADOR </t>
+  </si>
+  <si>
+    <t>CBV001028282360</t>
+  </si>
+  <si>
+    <t>0931813111</t>
+  </si>
+  <si>
+    <t>13/08/2025 00:00</t>
+  </si>
+  <si>
+    <t>14/08/2025 12:06</t>
+  </si>
+  <si>
+    <t>riparato in armadio eseguita prova telefonica Codice collaudo: tk202508120067495981</t>
+  </si>
+  <si>
+    <t>TT1004683410</t>
+  </si>
+  <si>
+    <t>92108070</t>
+  </si>
+  <si>
+    <t>14/08/2025 12:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081281429509 </t>
+  </si>
+  <si>
+    <t>SWADW5041416780</t>
+  </si>
+  <si>
+    <t>093114756428</t>
+  </si>
+  <si>
+    <t>19/08/2025 20:00</t>
+  </si>
+  <si>
+    <t>14/08/2025 15:58</t>
+  </si>
+  <si>
+    <t>14/08/2025 21:30</t>
+  </si>
+  <si>
+    <t>12/08/2025 21:30</t>
+  </si>
+  <si>
+    <t>riparato al box eseguita prova in sede utente Codice collaudo: tk202508120067513309</t>
+  </si>
+  <si>
+    <t>TT1004685007</t>
+  </si>
+  <si>
+    <t>92119884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081381520763 </t>
+  </si>
+  <si>
+    <t>SWADW5041418609</t>
+  </si>
+  <si>
+    <t>093114727287</t>
+  </si>
+  <si>
+    <t>14/08/2025 11:35</t>
+  </si>
+  <si>
+    <t>14/08/2025 14:27</t>
+  </si>
+  <si>
+    <t>14/08/2025 07:46</t>
+  </si>
+  <si>
+    <t>13/08/2025 12:46</t>
+  </si>
+  <si>
+    <t>eseguita sostituzione cavetto rj11 guasto Codice collaudo: tk202508130067525116 certificato da app oracle</t>
+  </si>
+  <si>
+    <t>TT1004688692</t>
+  </si>
+  <si>
+    <t>92143895</t>
+  </si>
+  <si>
+    <t>14/08/2025 15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081481702202 </t>
+  </si>
+  <si>
+    <t>SWADW5041423174</t>
+  </si>
+  <si>
+    <t>093114723702</t>
+  </si>
+  <si>
+    <t>15/08/2025 12:01</t>
+  </si>
+  <si>
+    <t>14/08/2025 14:59</t>
+  </si>
+  <si>
+    <t>15/08/2025 13:10</t>
+  </si>
+  <si>
+    <t>14/08/2025 13:10</t>
+  </si>
+  <si>
+    <t>si riscontra guasto cavo causa cavo furtato zona 1.67 box 15 senza dicitura</t>
+  </si>
+  <si>
+    <t>ASSENZA DI PORTANTE **CPE_SN:S182V32021303**</t>
+  </si>
+  <si>
+    <t>TT1004673031</t>
+  </si>
+  <si>
+    <t>92040518</t>
+  </si>
+  <si>
+    <t>14/08/2025 16:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIUSEPPE VACCARO </t>
+  </si>
+  <si>
+    <t>CRV001028191592</t>
+  </si>
+  <si>
+    <t>0931714615</t>
+  </si>
+  <si>
+    <t>14/08/2025 23:59</t>
+  </si>
+  <si>
+    <t>14/08/2025 16:26</t>
+  </si>
+  <si>
+    <t>09/08/2025 10:18</t>
+  </si>
+  <si>
+    <t>riparato al box cliente non naviga in quanto si trova in blacklist Codice collaudo: tk202508090067445786</t>
+  </si>
+  <si>
+    <t>TT1004678436</t>
+  </si>
+  <si>
+    <t>92075578</t>
+  </si>
+  <si>
+    <t>CRV000102234270</t>
+  </si>
+  <si>
+    <t>11/08/2025 16:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">riparato al box Codice collaudo: tk202508110067480834  </t>
+  </si>
+  <si>
+    <t>TT1004680886</t>
+  </si>
+  <si>
+    <t>92093158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081281342306 </t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>SWRTW5041414313</t>
+  </si>
+  <si>
+    <t>0931594116</t>
+  </si>
+  <si>
+    <t>14/08/2025 19:34</t>
+  </si>
+  <si>
+    <t>OPI</t>
+  </si>
+  <si>
+    <t>ULL CONS</t>
+  </si>
+  <si>
+    <t>VDSL</t>
+  </si>
+  <si>
+    <t>12/08/2025 12:34</t>
+  </si>
+  <si>
+    <t>Cliente fuori sede con modem spento torna dopo ferragosto, non ha fornito una data precisa</t>
+  </si>
+  <si>
+    <t>TT1004682274</t>
+  </si>
+  <si>
+    <t>92102176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081281377904 </t>
+  </si>
+  <si>
+    <t>SWADW5041415256</t>
+  </si>
+  <si>
+    <t>093114754436</t>
+  </si>
+  <si>
+    <t>13/08/2025 15:10</t>
+  </si>
+  <si>
+    <t>14/08/2025 19:38</t>
+  </si>
+  <si>
+    <t>13/08/2025 16:20</t>
+  </si>
+  <si>
+    <t>OPI2441FLA</t>
+  </si>
+  <si>
+    <t>12/08/2025 16:20</t>
+  </si>
+  <si>
+    <t>Riparato al box eseguita prova telefonica Codice collaudo: tk202508120067507418, utente momentaneamente con modem libero a passaggio, di pomeriggio collega modem Vodafone.</t>
+  </si>
+  <si>
+    <t>TT1004686008</t>
+  </si>
+  <si>
+    <t>92126119</t>
+  </si>
+  <si>
+    <t>14/08/2025 18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIA VERNUCCIO </t>
+  </si>
+  <si>
+    <t>CRR000102242353</t>
+  </si>
+  <si>
+    <t>0931855169</t>
+  </si>
+  <si>
+    <t>14/08/2025 16:27</t>
+  </si>
+  <si>
+    <t>13/08/2025 15:36</t>
+  </si>
+  <si>
+    <t>guasto di cavo secondaria 1.35 box 24d1 tutto in corto causa incendio.</t>
+  </si>
+  <si>
+    <t>TT1004687343</t>
+  </si>
+  <si>
+    <t>92133752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIUSEPPE CATANIA </t>
+  </si>
+  <si>
+    <t>CRV001028466955</t>
+  </si>
+  <si>
+    <t>0931972376</t>
+  </si>
+  <si>
+    <t>14/08/2025 17:08</t>
+  </si>
+  <si>
+    <t>13/08/2025 21:26</t>
+  </si>
+  <si>
+    <t>Riparato in prima presa eseguita prova telefonica Codice collaudo: tk202508130067538980</t>
+  </si>
+  <si>
+    <t>TT1004687367</t>
+  </si>
+  <si>
+    <t>92133827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081381626306 </t>
+  </si>
+  <si>
+    <t>SWRTW5041421432</t>
+  </si>
+  <si>
+    <t>14/08/2025 12:24</t>
+  </si>
+  <si>
+    <t>13/08/2025 21:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> si riscontra guasto di cavo secondaria intero box in basso isolamento verso Terra. 1.64 box 33</t>
+  </si>
+  <si>
+    <t>TT1004687431</t>
+  </si>
+  <si>
+    <t>92133992</t>
+  </si>
+  <si>
+    <t>14/08/2025 15:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081381622078 </t>
+  </si>
+  <si>
+    <t>SWADW5041421298</t>
+  </si>
+  <si>
+    <t>093114723465</t>
+  </si>
+  <si>
+    <t>15/08/2025 04:50</t>
+  </si>
+  <si>
+    <t>14/08/2025 15:34</t>
+  </si>
+  <si>
+    <t>14/08/2025 22:00</t>
+  </si>
+  <si>
+    <t>13/08/2025 22:00</t>
+  </si>
+  <si>
+    <t>Riparato al box eseguita prova telefonica Codice collaudo: tk202508130067539220</t>
+  </si>
+  <si>
+    <t>TT1004688191</t>
+  </si>
+  <si>
+    <t>92139982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROBERTO ANZALONE </t>
+  </si>
+  <si>
+    <t>CRV000102271432</t>
+  </si>
+  <si>
+    <t>0931318163</t>
+  </si>
+  <si>
+    <t>20/08/2025 23:59</t>
+  </si>
+  <si>
+    <t>14/08/2025 11:14</t>
+  </si>
+  <si>
+    <t>TT1004679029</t>
+  </si>
+  <si>
+    <t>92078949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081181228763 </t>
+  </si>
+  <si>
+    <t>SWADW5041411963</t>
+  </si>
+  <si>
+    <t>093114749893</t>
+  </si>
+  <si>
+    <t>13/08/2025 03:12</t>
+  </si>
+  <si>
+    <t>14/08/2025 16:41</t>
+  </si>
+  <si>
+    <t>BARBATI SILVIA AURORA</t>
+  </si>
+  <si>
+    <t>PMO2102CLI</t>
+  </si>
+  <si>
+    <t>PMO</t>
+  </si>
+  <si>
+    <t>11/08/2025 19:16</t>
+  </si>
+  <si>
+    <t>@roditori Codice collaudo: tk202508110067484204 Riparato al box allineamento stabilità servizi ok provato con il cliente</t>
+  </si>
+  <si>
+    <t>QUADARELLA ANDREA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -5938,10 +6603,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -6236,10 +6902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP257"/>
+  <dimension ref="A1:CP285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="B244" sqref="B244"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -79075,12 +79741,7960 @@
         <v>99</v>
       </c>
     </row>
+    <row r="258" spans="1:94">
+      <c r="A258" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I258" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J258" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K258" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L258" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M258" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N258" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O258" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="P258" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q258" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="R258" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S258" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T258" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U258" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="V258" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W258" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X258" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y258" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z258" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA258" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB258" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC258" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD258" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE258" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF258" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG258" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH258" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI258" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ258" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK258" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL258" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM258" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN258" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="AO258" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="AP258" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="AQ258" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="AR258" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS258" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT258" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU258" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV258" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW258" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AX258" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="AY258" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ258" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA258" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB258" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC258" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD258" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE258" s="1" t="s">
+        <v>1977</v>
+      </c>
+      <c r="BF258" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG258" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH258" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI258" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ258" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK258" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL258" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM258" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN258" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO258" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP258" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ258" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR258" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS258" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT258" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU258" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV258" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW258" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BX258" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY258" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ258" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CA258" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB258" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC258" s="1" t="s">
+        <v>1978</v>
+      </c>
+      <c r="CD258" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE258" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF258" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG258" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH258" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI258" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ258" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK258" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL258" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM258" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN258" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO258" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP258" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="259" spans="1:94">
+      <c r="A259" s="1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H259" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I259" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J259" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K259" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L259" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M259" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N259" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O259" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="P259" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q259" s="1" t="s">
+        <v>1982</v>
+      </c>
+      <c r="R259" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S259" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T259" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U259" s="1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="V259" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W259" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X259" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y259" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z259" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA259" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB259" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC259" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD259" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE259" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF259" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG259" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH259" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI259" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ259" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK259" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL259" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM259" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN259" s="1" t="s">
+        <v>1812</v>
+      </c>
+      <c r="AO259" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="AP259" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="AQ259" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="AR259" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS259" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT259" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AU259" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AV259" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW259" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AX259" s="1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="AY259" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ259" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA259" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB259" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC259" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD259" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE259" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="BF259" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BG259" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BH259" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI259" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ259" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK259" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL259" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM259" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BN259" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO259" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP259" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BQ259" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR259" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS259" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT259" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU259" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV259" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW259" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BX259" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY259" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ259" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA259" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB259" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC259" s="1" t="s">
+        <v>1986</v>
+      </c>
+      <c r="CD259" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CE259" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CF259" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG259" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH259" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI259" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ259" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK259" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL259" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM259" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CN259" s="1" t="s">
+        <v>1986</v>
+      </c>
+      <c r="CO259" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP259" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="260" spans="1:94">
+      <c r="A260" s="1" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G260" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H260" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I260" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J260" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K260" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L260" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M260" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N260" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O260" s="1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="P260" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q260" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="R260" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S260" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T260" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U260" s="1" t="s">
+        <v>1989</v>
+      </c>
+      <c r="V260" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W260" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X260" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y260" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z260" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA260" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB260" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC260" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD260" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE260" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF260" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG260" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH260" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI260" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ260" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK260" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL260" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM260" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN260" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="AO260" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="AP260" s="1" t="s">
+        <v>1992</v>
+      </c>
+      <c r="AQ260" s="1" t="s">
+        <v>1993</v>
+      </c>
+      <c r="AR260" s="1" t="s">
+        <v>1992</v>
+      </c>
+      <c r="AS260" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT260" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU260" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV260" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW260" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX260" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY260" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ260" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA260" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB260" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC260" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD260" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE260" s="1" t="s">
+        <v>1994</v>
+      </c>
+      <c r="BF260" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BG260" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BH260" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI260" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ260" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK260" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL260" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM260" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN260" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BO260" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP260" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ260" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR260" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS260" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT260" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU260" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV260" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW260" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="BX260" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY260" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BZ260" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA260" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB260" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC260" s="1" t="s">
+        <v>1995</v>
+      </c>
+      <c r="CD260" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CE260" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF260" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG260" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH260" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI260" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ260" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK260" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL260" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM260" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN260" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO260" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP260" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="261" spans="1:94">
+      <c r="A261" s="1" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H261" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I261" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J261" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K261" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L261" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M261" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N261" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O261" s="1" t="s">
+        <v>1998</v>
+      </c>
+      <c r="P261" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q261" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="R261" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S261" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T261" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U261" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="V261" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W261" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X261" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y261" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z261" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA261" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB261" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC261" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD261" s="1" t="s">
+        <v>2000</v>
+      </c>
+      <c r="AE261" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF261" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG261" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH261" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI261" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ261" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK261" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL261" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM261" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN261" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="AO261" s="1" t="s">
+        <v>2002</v>
+      </c>
+      <c r="AP261" s="1" t="s">
+        <v>2003</v>
+      </c>
+      <c r="AQ261" s="1" t="s">
+        <v>2004</v>
+      </c>
+      <c r="AR261" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS261" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT261" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU261" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV261" s="1" t="s">
+        <v>2005</v>
+      </c>
+      <c r="AW261" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AX261" s="1" t="s">
+        <v>2006</v>
+      </c>
+      <c r="AY261" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ261" s="1" t="s">
+        <v>2007</v>
+      </c>
+      <c r="BA261" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB261" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC261" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD261" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE261" s="1" t="s">
+        <v>2008</v>
+      </c>
+      <c r="BF261" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG261" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH261" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI261" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ261" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK261" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL261" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM261" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN261" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO261" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP261" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ261" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR261" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS261" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT261" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU261" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV261" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW261" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BX261" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY261" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ261" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CA261" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB261" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC261" s="1" t="s">
+        <v>2009</v>
+      </c>
+      <c r="CD261" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE261" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF261" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG261" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH261" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI261" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ261" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CK261" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL261" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM261" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN261" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO261" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP261" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="262" spans="1:94">
+      <c r="A262" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>2011</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H262" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I262" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J262" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K262" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L262" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M262" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N262" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O262" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="P262" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q262" s="1" t="s">
+        <v>2012</v>
+      </c>
+      <c r="R262" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S262" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T262" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U262" s="1" t="s">
+        <v>2013</v>
+      </c>
+      <c r="V262" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W262" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X262" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y262" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z262" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA262" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB262" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC262" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD262" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE262" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF262" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG262" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH262" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI262" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ262" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK262" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL262" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM262" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN262" s="1" t="s">
+        <v>2014</v>
+      </c>
+      <c r="AO262" s="1" t="s">
+        <v>2015</v>
+      </c>
+      <c r="AP262" s="1" t="s">
+        <v>2016</v>
+      </c>
+      <c r="AQ262" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="AR262" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS262" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT262" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU262" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV262" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW262" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AX262" s="1" t="s">
+        <v>2017</v>
+      </c>
+      <c r="AY262" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ262" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="BA262" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB262" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC262" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD262" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE262" s="1" t="s">
+        <v>2018</v>
+      </c>
+      <c r="BF262" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG262" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH262" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI262" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ262" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK262" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL262" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM262" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN262" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO262" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP262" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ262" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR262" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS262" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT262" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU262" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV262" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW262" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BX262" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY262" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ262" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA262" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB262" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC262" s="1" t="s">
+        <v>2019</v>
+      </c>
+      <c r="CD262" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE262" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF262" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG262" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH262" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI262" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ262" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CK262" s="1" t="s">
+        <v>2020</v>
+      </c>
+      <c r="CL262" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM262" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN262" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO262" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP262" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="263" spans="1:94">
+      <c r="A263" s="1" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H263" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I263" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J263" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K263" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L263" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M263" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N263" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O263" s="1" t="s">
+        <v>2023</v>
+      </c>
+      <c r="P263" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q263" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="R263" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S263" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T263" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U263" s="1" t="s">
+        <v>2024</v>
+      </c>
+      <c r="V263" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W263" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X263" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y263" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z263" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA263" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB263" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC263" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD263" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE263" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF263" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG263" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH263" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI263" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ263" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK263" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL263" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM263" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN263" s="1" t="s">
+        <v>2025</v>
+      </c>
+      <c r="AO263" s="1" t="s">
+        <v>2026</v>
+      </c>
+      <c r="AP263" s="1" t="s">
+        <v>2027</v>
+      </c>
+      <c r="AQ263" s="1" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AR263" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS263" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT263" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU263" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV263" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW263" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AX263" s="1" t="s">
+        <v>2029</v>
+      </c>
+      <c r="AY263" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ263" s="1" t="s">
+        <v>2030</v>
+      </c>
+      <c r="BA263" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB263" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC263" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD263" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE263" s="1" t="s">
+        <v>2031</v>
+      </c>
+      <c r="BF263" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG263" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH263" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI263" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ263" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK263" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL263" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM263" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN263" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO263" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP263" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ263" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR263" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS263" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT263" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU263" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV263" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW263" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX263" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY263" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BZ263" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA263" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB263" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC263" s="1" t="s">
+        <v>2032</v>
+      </c>
+      <c r="CD263" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE263" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF263" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG263" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH263" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI263" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ263" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CK263" s="1" t="s">
+        <v>2033</v>
+      </c>
+      <c r="CL263" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM263" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN263" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO263" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP263" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="264" spans="1:94">
+      <c r="A264" s="1" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G264" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H264" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I264" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J264" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K264" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L264" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M264" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N264" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O264" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="P264" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q264" s="1" t="s">
+        <v>2036</v>
+      </c>
+      <c r="R264" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S264" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T264" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U264" s="1" t="s">
+        <v>2037</v>
+      </c>
+      <c r="V264" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W264" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X264" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y264" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z264" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA264" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB264" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC264" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD264" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE264" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF264" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG264" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH264" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI264" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ264" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK264" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL264" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM264" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN264" s="1" t="s">
+        <v>2038</v>
+      </c>
+      <c r="AO264" s="1" t="s">
+        <v>2039</v>
+      </c>
+      <c r="AP264" s="1" t="s">
+        <v>2040</v>
+      </c>
+      <c r="AQ264" s="1" t="s">
+        <v>2041</v>
+      </c>
+      <c r="AR264" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS264" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT264" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AU264" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV264" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW264" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AX264" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="AY264" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ264" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA264" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB264" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC264" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD264" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE264" s="1" t="s">
+        <v>2043</v>
+      </c>
+      <c r="BF264" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG264" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH264" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI264" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ264" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK264" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL264" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM264" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN264" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO264" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP264" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ264" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR264" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS264" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT264" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU264" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV264" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW264" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX264" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY264" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ264" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA264" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB264" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC264" s="1" t="s">
+        <v>2044</v>
+      </c>
+      <c r="CD264" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE264" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF264" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG264" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH264" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI264" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ264" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK264" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL264" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM264" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN264" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO264" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP264" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="265" spans="1:94">
+      <c r="A265" s="1" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H265" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I265" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J265" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L265" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M265" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O265" s="1" t="s">
+        <v>2047</v>
+      </c>
+      <c r="P265" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q265" s="1" t="s">
+        <v>2048</v>
+      </c>
+      <c r="R265" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S265" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="T265" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="U265" s="1" t="s">
+        <v>2049</v>
+      </c>
+      <c r="V265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W265" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X265" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC265" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD265" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE265" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF265" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG265" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH265" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI265" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ265" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL265" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM265" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN265" s="1" t="s">
+        <v>2050</v>
+      </c>
+      <c r="AO265" s="1" t="s">
+        <v>2051</v>
+      </c>
+      <c r="AP265" s="1" t="s">
+        <v>2052</v>
+      </c>
+      <c r="AQ265" s="1" t="s">
+        <v>2053</v>
+      </c>
+      <c r="AR265" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="AS265" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT265" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA265" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC265" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="BD265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE265" s="1" t="s">
+        <v>1795</v>
+      </c>
+      <c r="BF265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL265" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="BM265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN265" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BO265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP265" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ265" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR265" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU265" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV265" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW265" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BX265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY265" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BZ265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC265" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="CD265" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI265" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO265" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP265" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="266" spans="1:94">
+      <c r="A266" s="1" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H266" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I266" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J266" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K266" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L266" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M266" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N266" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O266" s="1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="P266" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q266" s="1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="R266" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S266" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="T266" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="U266" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="V266" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W266" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X266" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y266" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z266" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA266" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB266" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC266" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD266" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE266" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF266" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG266" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH266" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI266" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ266" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK266" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL266" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM266" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN266" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="AO266" s="1" t="s">
+        <v>2060</v>
+      </c>
+      <c r="AP266" s="1" t="s">
+        <v>2061</v>
+      </c>
+      <c r="AQ266" s="1" t="s">
+        <v>2062</v>
+      </c>
+      <c r="AR266" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS266" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT266" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU266" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV266" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW266" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AX266" s="1" t="s">
+        <v>2063</v>
+      </c>
+      <c r="AY266" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ266" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA266" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB266" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC266" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD266" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE266" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="BF266" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG266" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH266" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI266" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ266" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK266" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL266" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM266" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN266" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO266" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP266" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ266" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR266" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS266" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT266" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU266" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV266" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW266" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BX266" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY266" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BZ266" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CA266" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB266" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC266" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="CD266" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE266" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF266" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG266" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH266" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI266" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ266" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK266" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL266" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM266" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN266" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO266" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP266" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="267" spans="1:94">
+      <c r="A267" s="1" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G267" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H267" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I267" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J267" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K267" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L267" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M267" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N267" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O267" s="1" t="s">
+        <v>2023</v>
+      </c>
+      <c r="P267" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q267" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="R267" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S267" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="T267" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="U267" s="1" t="s">
+        <v>2068</v>
+      </c>
+      <c r="V267" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W267" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X267" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y267" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z267" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA267" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB267" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC267" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD267" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE267" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF267" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG267" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH267" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI267" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ267" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK267" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL267" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM267" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN267" s="1" t="s">
+        <v>2069</v>
+      </c>
+      <c r="AO267" s="1" t="s">
+        <v>2070</v>
+      </c>
+      <c r="AP267" s="1" t="s">
+        <v>2071</v>
+      </c>
+      <c r="AQ267" s="1" t="s">
+        <v>2072</v>
+      </c>
+      <c r="AR267" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS267" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT267" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU267" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AV267" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW267" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AX267" s="1" t="s">
+        <v>2073</v>
+      </c>
+      <c r="AY267" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ267" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA267" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB267" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC267" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD267" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE267" s="1" t="s">
+        <v>2074</v>
+      </c>
+      <c r="BF267" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG267" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH267" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI267" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ267" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK267" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL267" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM267" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN267" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO267" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP267" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ267" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR267" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS267" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT267" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU267" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV267" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW267" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BX267" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY267" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ267" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA267" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB267" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC267" s="1" t="s">
+        <v>2075</v>
+      </c>
+      <c r="CD267" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE267" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF267" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG267" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH267" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI267" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ267" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK267" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL267" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM267" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CN267" s="1" t="s">
+        <v>2075</v>
+      </c>
+      <c r="CO267" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP267" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="268" spans="1:94">
+      <c r="A268" s="1" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H268" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I268" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J268" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K268" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L268" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M268" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N268" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O268" s="1" t="s">
+        <v>2078</v>
+      </c>
+      <c r="P268" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q268" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="R268" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S268" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="T268" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="U268" s="1" t="s">
+        <v>2079</v>
+      </c>
+      <c r="V268" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W268" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X268" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y268" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z268" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA268" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB268" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC268" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD268" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE268" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF268" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG268" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH268" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI268" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ268" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK268" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL268" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM268" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN268" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="AO268" s="1" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AP268" s="1" t="s">
+        <v>2082</v>
+      </c>
+      <c r="AQ268" s="1" t="s">
+        <v>2083</v>
+      </c>
+      <c r="AR268" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS268" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AT268" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AU268" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV268" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW268" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AX268" s="1" t="s">
+        <v>2084</v>
+      </c>
+      <c r="AY268" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ268" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA268" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB268" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC268" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD268" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE268" s="1" t="s">
+        <v>2085</v>
+      </c>
+      <c r="BF268" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG268" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH268" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI268" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ268" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK268" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL268" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM268" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN268" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO268" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP268" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ268" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR268" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS268" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT268" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU268" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV268" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW268" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX268" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY268" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ268" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA268" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB268" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC268" s="1" t="s">
+        <v>2086</v>
+      </c>
+      <c r="CD268" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE268" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF268" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG268" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH268" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI268" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ268" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CK268" s="1" t="s">
+        <v>2087</v>
+      </c>
+      <c r="CL268" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM268" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN268" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO268" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP268" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="269" spans="1:94">
+      <c r="A269" s="1" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H269" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I269" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J269" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L269" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M269" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O269" s="1" t="s">
+        <v>2090</v>
+      </c>
+      <c r="P269" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q269" s="1" t="s">
+        <v>1982</v>
+      </c>
+      <c r="R269" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S269" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="T269" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="U269" s="1" t="s">
+        <v>2091</v>
+      </c>
+      <c r="V269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W269" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X269" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC269" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD269" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE269" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF269" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG269" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH269" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI269" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ269" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL269" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM269" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN269" s="1" t="s">
+        <v>2092</v>
+      </c>
+      <c r="AO269" s="1" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AP269" s="1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AQ269" s="1" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AR269" s="1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AS269" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT269" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA269" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC269" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE269" s="1" t="s">
+        <v>2096</v>
+      </c>
+      <c r="BF269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL269" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="BM269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN269" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BO269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP269" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ269" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR269" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU269" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV269" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW269" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY269" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BZ269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC269" s="1" t="s">
+        <v>2097</v>
+      </c>
+      <c r="CD269" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI269" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO269" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP269" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="270" spans="1:94">
+      <c r="A270" s="1" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H270" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I270" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J270" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K270" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L270" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M270" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N270" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O270" s="1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="P270" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q270" s="1" t="s">
+        <v>2023</v>
+      </c>
+      <c r="R270" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S270" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="T270" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U270" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="V270" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W270" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X270" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y270" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z270" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA270" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB270" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC270" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD270" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE270" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF270" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG270" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH270" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI270" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ270" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK270" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL270" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM270" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN270" s="1" t="s">
+        <v>2100</v>
+      </c>
+      <c r="AO270" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AP270" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="AQ270" s="1" t="s">
+        <v>1867</v>
+      </c>
+      <c r="AR270" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="AS270" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT270" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU270" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV270" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW270" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX270" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY270" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ270" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA270" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB270" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC270" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD270" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE270" s="1" t="s">
+        <v>2101</v>
+      </c>
+      <c r="BF270" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BG270" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BH270" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI270" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ270" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK270" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL270" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM270" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BN270" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BO270" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP270" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BQ270" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR270" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS270" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT270" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU270" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV270" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW270" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="BX270" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY270" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BZ270" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA270" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB270" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC270" s="1" t="s">
+        <v>2102</v>
+      </c>
+      <c r="CD270" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CE270" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF270" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG270" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH270" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI270" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ270" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK270" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL270" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM270" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN270" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO270" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP270" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="271" spans="1:94">
+      <c r="A271" s="1" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>2104</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H271" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I271" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J271" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K271" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L271" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M271" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N271" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O271" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="P271" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q271" s="1" t="s">
+        <v>2036</v>
+      </c>
+      <c r="R271" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S271" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="T271" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="U271" s="1" t="s">
+        <v>2105</v>
+      </c>
+      <c r="V271" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W271" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X271" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y271" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z271" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA271" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB271" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC271" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD271" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE271" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF271" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG271" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH271" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI271" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ271" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK271" s="1" t="s">
+        <v>2106</v>
+      </c>
+      <c r="AL271" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM271" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN271" s="1" t="s">
+        <v>2107</v>
+      </c>
+      <c r="AO271" s="1" t="s">
+        <v>2108</v>
+      </c>
+      <c r="AP271" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="AQ271" s="1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="AR271" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS271" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AT271" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AU271" s="1" t="s">
+        <v>2110</v>
+      </c>
+      <c r="AV271" s="1" t="s">
+        <v>2111</v>
+      </c>
+      <c r="AW271" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX271" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY271" s="1" t="s">
+        <v>2112</v>
+      </c>
+      <c r="AZ271" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA271" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB271" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC271" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BD271" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BE271" s="1" t="s">
+        <v>2113</v>
+      </c>
+      <c r="BF271" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG271" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH271" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI271" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ271" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK271" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL271" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="BM271" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN271" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO271" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP271" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ271" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR271" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS271" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT271" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU271" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV271" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW271" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BX271" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY271" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ271" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CA271" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB271" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC271" s="1" t="s">
+        <v>2114</v>
+      </c>
+      <c r="CD271" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE271" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF271" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG271" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH271" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI271" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ271" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK271" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL271" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM271" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN271" s="1" t="s">
+        <v>2114</v>
+      </c>
+      <c r="CO271" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP271" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="272" spans="1:94">
+      <c r="A272" s="1" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G272" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H272" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I272" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J272" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K272" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L272" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M272" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N272" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O272" s="1" t="s">
+        <v>2012</v>
+      </c>
+      <c r="P272" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q272" s="1" t="s">
+        <v>2048</v>
+      </c>
+      <c r="R272" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S272" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="T272" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="U272" s="1" t="s">
+        <v>2117</v>
+      </c>
+      <c r="V272" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W272" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X272" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y272" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z272" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA272" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB272" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC272" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD272" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE272" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF272" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG272" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH272" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI272" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ272" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK272" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL272" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM272" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN272" s="1" t="s">
+        <v>2118</v>
+      </c>
+      <c r="AO272" s="1" t="s">
+        <v>2119</v>
+      </c>
+      <c r="AP272" s="1" t="s">
+        <v>2120</v>
+      </c>
+      <c r="AQ272" s="1" t="s">
+        <v>2121</v>
+      </c>
+      <c r="AR272" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS272" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT272" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AU272" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV272" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW272" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AX272" s="1" t="s">
+        <v>2122</v>
+      </c>
+      <c r="AY272" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ272" s="1" t="s">
+        <v>2123</v>
+      </c>
+      <c r="BA272" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB272" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC272" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD272" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE272" s="1" t="s">
+        <v>2124</v>
+      </c>
+      <c r="BF272" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG272" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH272" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI272" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ272" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK272" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL272" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM272" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN272" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO272" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP272" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ272" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR272" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS272" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT272" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU272" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV272" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW272" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BX272" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY272" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ272" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CA272" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB272" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC272" s="1" t="s">
+        <v>2125</v>
+      </c>
+      <c r="CD272" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE272" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CF272" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG272" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH272" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI272" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ272" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK272" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL272" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM272" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN272" s="1" t="s">
+        <v>2125</v>
+      </c>
+      <c r="CO272" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP272" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="273" spans="1:94">
+      <c r="A273" s="1" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G273" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H273" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I273" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J273" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L273" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M273" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O273" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="P273" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q273" s="1" t="s">
+        <v>2128</v>
+      </c>
+      <c r="R273" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S273" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="T273" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="U273" s="1" t="s">
+        <v>2129</v>
+      </c>
+      <c r="V273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W273" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="X273" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC273" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD273" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE273" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF273" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG273" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH273" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI273" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ273" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL273" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM273" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN273" s="1" t="s">
+        <v>2130</v>
+      </c>
+      <c r="AO273" s="1" t="s">
+        <v>2131</v>
+      </c>
+      <c r="AP273" s="1" t="s">
+        <v>1966</v>
+      </c>
+      <c r="AQ273" s="1" t="s">
+        <v>2132</v>
+      </c>
+      <c r="AR273" s="1" t="s">
+        <v>1957</v>
+      </c>
+      <c r="AS273" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT273" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AU273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA273" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC273" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BD273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE273" s="1" t="s">
+        <v>2133</v>
+      </c>
+      <c r="BF273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL273" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BM273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN273" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BO273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP273" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ273" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR273" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU273" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV273" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW273" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY273" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BZ273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC273" s="1" t="s">
+        <v>2134</v>
+      </c>
+      <c r="CD273" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI273" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO273" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP273" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="274" spans="1:94">
+      <c r="A274" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G274" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H274" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I274" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J274" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L274" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M274" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O274" s="1" t="s">
+        <v>2036</v>
+      </c>
+      <c r="P274" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q274" s="1" t="s">
+        <v>2128</v>
+      </c>
+      <c r="R274" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S274" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="T274" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="U274" s="1" t="s">
+        <v>2137</v>
+      </c>
+      <c r="V274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W274" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X274" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC274" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD274" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE274" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF274" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG274" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH274" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI274" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ274" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL274" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM274" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN274" s="1" t="s">
+        <v>2138</v>
+      </c>
+      <c r="AO274" s="1" t="s">
+        <v>2139</v>
+      </c>
+      <c r="AP274" s="1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AQ274" s="1" t="s">
+        <v>2140</v>
+      </c>
+      <c r="AR274" s="1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AS274" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT274" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AU274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA274" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC274" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE274" s="1" t="s">
+        <v>2141</v>
+      </c>
+      <c r="BF274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL274" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="BM274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN274" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BO274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP274" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ274" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR274" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU274" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV274" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW274" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="BX274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY274" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BZ274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC274" s="1" t="s">
+        <v>2142</v>
+      </c>
+      <c r="CD274" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI274" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO274" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP274" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="275" spans="1:94">
+      <c r="A275" s="1" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G275" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H275" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I275" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J275" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K275" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L275" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M275" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N275" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O275" s="1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="P275" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q275" s="1" t="s">
+        <v>2023</v>
+      </c>
+      <c r="R275" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S275" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="T275" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="U275" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="V275" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W275" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X275" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y275" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z275" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA275" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB275" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC275" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD275" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE275" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF275" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG275" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH275" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI275" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ275" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK275" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AL275" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM275" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN275" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="AO275" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="AP275" s="1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AQ275" s="1" t="s">
+        <v>2147</v>
+      </c>
+      <c r="AR275" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS275" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AT275" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AU275" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AV275" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AW275" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX275" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY275" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AZ275" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA275" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB275" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC275" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BD275" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BE275" s="1" t="s">
+        <v>2148</v>
+      </c>
+      <c r="BF275" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BG275" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BH275" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI275" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ275" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK275" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL275" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="BM275" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BN275" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO275" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP275" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BQ275" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR275" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS275" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT275" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU275" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV275" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW275" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX275" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY275" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ275" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA275" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB275" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC275" s="1" t="s">
+        <v>2149</v>
+      </c>
+      <c r="CD275" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE275" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CF275" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG275" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH275" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI275" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ275" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK275" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="CL275" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM275" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN275" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO275" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP275" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="276" spans="1:94">
+      <c r="A276" s="1" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G276" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H276" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I276" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J276" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K276" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L276" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M276" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N276" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O276" s="1" t="s">
+        <v>2152</v>
+      </c>
+      <c r="P276" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q276" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="R276" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S276" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="T276" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="U276" s="1" t="s">
+        <v>2153</v>
+      </c>
+      <c r="V276" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W276" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X276" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y276" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z276" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA276" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB276" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC276" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD276" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE276" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF276" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG276" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH276" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI276" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ276" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK276" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL276" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM276" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN276" s="1" t="s">
+        <v>2154</v>
+      </c>
+      <c r="AO276" s="1" t="s">
+        <v>2155</v>
+      </c>
+      <c r="AP276" s="1" t="s">
+        <v>2156</v>
+      </c>
+      <c r="AQ276" s="1" t="s">
+        <v>2157</v>
+      </c>
+      <c r="AR276" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS276" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT276" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AU276" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV276" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW276" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AX276" s="1" t="s">
+        <v>2158</v>
+      </c>
+      <c r="AY276" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ276" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA276" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB276" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC276" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD276" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE276" s="1" t="s">
+        <v>2159</v>
+      </c>
+      <c r="BF276" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG276" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH276" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI276" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ276" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK276" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL276" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM276" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN276" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO276" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP276" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ276" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR276" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS276" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT276" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU276" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV276" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW276" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX276" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY276" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ276" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA276" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB276" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC276" s="1" t="s">
+        <v>2160</v>
+      </c>
+      <c r="CD276" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE276" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF276" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG276" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH276" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI276" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ276" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK276" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL276" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM276" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN276" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO276" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP276" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="277" spans="1:94">
+      <c r="A277" s="1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G277" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H277" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I277" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J277" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L277" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M277" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O277" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="P277" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q277" s="1" t="s">
+        <v>2036</v>
+      </c>
+      <c r="R277" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S277" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="T277" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="U277" s="1" t="s">
+        <v>2163</v>
+      </c>
+      <c r="V277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W277" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X277" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC277" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD277" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE277" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF277" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG277" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH277" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI277" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ277" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL277" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM277" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN277" s="1" t="s">
+        <v>2164</v>
+      </c>
+      <c r="AO277" s="1" t="s">
+        <v>2165</v>
+      </c>
+      <c r="AP277" s="1" t="s">
+        <v>2166</v>
+      </c>
+      <c r="AQ277" s="1" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AR277" s="1" t="s">
+        <v>2166</v>
+      </c>
+      <c r="AS277" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT277" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AU277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA277" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC277" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE277" s="1" t="s">
+        <v>2167</v>
+      </c>
+      <c r="BF277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL277" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN277" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BO277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP277" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ277" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR277" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU277" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV277" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW277" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="BX277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY277" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BZ277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC277" s="1" t="s">
+        <v>2044</v>
+      </c>
+      <c r="CD277" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI277" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO277" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP277" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="278" spans="1:94">
+      <c r="A278" s="1" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G278" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H278" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I278" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J278" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K278" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L278" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M278" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N278" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O278" s="1" t="s">
+        <v>2128</v>
+      </c>
+      <c r="P278" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q278" s="1" t="s">
+        <v>2017</v>
+      </c>
+      <c r="R278" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S278" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T278" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="U278" s="1" t="s">
+        <v>2170</v>
+      </c>
+      <c r="V278" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W278" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X278" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y278" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z278" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA278" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB278" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC278" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD278" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE278" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF278" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG278" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH278" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI278" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ278" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK278" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL278" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM278" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN278" s="1" t="s">
+        <v>2171</v>
+      </c>
+      <c r="AO278" s="1" t="s">
+        <v>2172</v>
+      </c>
+      <c r="AP278" s="1" t="s">
+        <v>2173</v>
+      </c>
+      <c r="AQ278" s="1" t="s">
+        <v>2174</v>
+      </c>
+      <c r="AR278" s="1" t="s">
+        <v>2173</v>
+      </c>
+      <c r="AS278" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT278" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU278" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AV278" s="1" t="s">
+        <v>2175</v>
+      </c>
+      <c r="AW278" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX278" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY278" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ278" s="1" t="s">
+        <v>2176</v>
+      </c>
+      <c r="BA278" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB278" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="BC278" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD278" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BE278" s="1" t="s">
+        <v>2178</v>
+      </c>
+      <c r="BF278" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG278" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH278" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI278" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ278" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK278" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL278" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM278" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN278" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BO278" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP278" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ278" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR278" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS278" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT278" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU278" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV278" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW278" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BX278" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY278" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ278" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA278" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CB278" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC278" s="1" t="s">
+        <v>2179</v>
+      </c>
+      <c r="CD278" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE278" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF278" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG278" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH278" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI278" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ278" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK278" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL278" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM278" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN278" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO278" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP278" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="279" spans="1:94">
+      <c r="A279" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G279" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H279" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I279" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J279" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L279" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M279" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O279" s="2" t="s">
+        <v>2047</v>
+      </c>
+      <c r="P279" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q279" s="2" t="s">
+        <v>2048</v>
+      </c>
+      <c r="R279" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="S279" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="T279" s="2" t="s">
+        <v>1769</v>
+      </c>
+      <c r="U279" s="2" t="s">
+        <v>2049</v>
+      </c>
+      <c r="V279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="W279" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="X279" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC279" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD279" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE279" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF279" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG279" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH279" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI279" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ279" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL279" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM279" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN279" s="2" t="s">
+        <v>2050</v>
+      </c>
+      <c r="AO279" s="2" t="s">
+        <v>2051</v>
+      </c>
+      <c r="AP279" s="2" t="s">
+        <v>2052</v>
+      </c>
+      <c r="AQ279" s="2" t="s">
+        <v>2053</v>
+      </c>
+      <c r="AR279" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="AS279" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT279" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA279" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC279" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="BD279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE279" s="2" t="s">
+        <v>1795</v>
+      </c>
+      <c r="BF279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL279" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="BM279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN279" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="BO279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP279" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ279" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR279" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU279" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV279" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW279" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="BX279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY279" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="BZ279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC279" s="2" t="s">
+        <v>2054</v>
+      </c>
+      <c r="CD279" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI279" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO279" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP279" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="280" spans="1:94">
+      <c r="A280" s="1" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H280" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I280" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J280" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K280" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L280" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M280" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N280" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O280" s="1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="P280" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q280" s="1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="R280" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S280" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="T280" s="1" t="s">
+        <v>1769</v>
+      </c>
+      <c r="U280" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="V280" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W280" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X280" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y280" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z280" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA280" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB280" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC280" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD280" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE280" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF280" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG280" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH280" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI280" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ280" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK280" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL280" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM280" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN280" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="AO280" s="1" t="s">
+        <v>2060</v>
+      </c>
+      <c r="AP280" s="1" t="s">
+        <v>2061</v>
+      </c>
+      <c r="AQ280" s="1" t="s">
+        <v>2062</v>
+      </c>
+      <c r="AR280" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS280" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT280" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU280" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV280" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW280" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AX280" s="1" t="s">
+        <v>2063</v>
+      </c>
+      <c r="AY280" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ280" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA280" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB280" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC280" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD280" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE280" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="BF280" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG280" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH280" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI280" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ280" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK280" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL280" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM280" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN280" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO280" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP280" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ280" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR280" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS280" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT280" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU280" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV280" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW280" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BX280" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY280" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BZ280" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CA280" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB280" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC280" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="CD280" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE280" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF280" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG280" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH280" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI280" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ280" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK280" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL280" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM280" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN280" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO280" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP280" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="281" spans="1:94">
+      <c r="A281" s="1" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H281" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I281" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J281" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K281" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L281" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M281" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N281" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O281" s="1" t="s">
+        <v>2023</v>
+      </c>
+      <c r="P281" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q281" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="R281" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S281" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="T281" s="1" t="s">
+        <v>1769</v>
+      </c>
+      <c r="U281" s="1" t="s">
+        <v>2068</v>
+      </c>
+      <c r="V281" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W281" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X281" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y281" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z281" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA281" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB281" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC281" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD281" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE281" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF281" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG281" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH281" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI281" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ281" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK281" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL281" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM281" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN281" s="1" t="s">
+        <v>2069</v>
+      </c>
+      <c r="AO281" s="1" t="s">
+        <v>2070</v>
+      </c>
+      <c r="AP281" s="1" t="s">
+        <v>2071</v>
+      </c>
+      <c r="AQ281" s="1" t="s">
+        <v>2072</v>
+      </c>
+      <c r="AR281" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS281" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT281" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU281" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AV281" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW281" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AX281" s="1" t="s">
+        <v>2073</v>
+      </c>
+      <c r="AY281" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ281" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA281" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB281" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC281" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD281" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE281" s="1" t="s">
+        <v>2074</v>
+      </c>
+      <c r="BF281" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG281" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH281" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI281" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ281" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK281" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL281" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM281" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN281" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO281" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP281" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ281" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR281" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS281" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT281" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU281" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV281" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW281" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BX281" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY281" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ281" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA281" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB281" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC281" s="1" t="s">
+        <v>2075</v>
+      </c>
+      <c r="CD281" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE281" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF281" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG281" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH281" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI281" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ281" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK281" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL281" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM281" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CN281" s="1" t="s">
+        <v>2075</v>
+      </c>
+      <c r="CO281" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP281" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="282" spans="1:94">
+      <c r="A282" s="1" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H282" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I282" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J282" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K282" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L282" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M282" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N282" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O282" s="1" t="s">
+        <v>2078</v>
+      </c>
+      <c r="P282" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q282" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="R282" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S282" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="T282" s="1" t="s">
+        <v>1769</v>
+      </c>
+      <c r="U282" s="1" t="s">
+        <v>2079</v>
+      </c>
+      <c r="V282" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W282" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X282" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y282" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z282" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA282" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB282" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC282" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD282" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE282" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF282" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG282" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH282" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI282" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ282" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK282" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL282" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM282" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN282" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="AO282" s="1" t="s">
+        <v>2081</v>
+      </c>
+      <c r="AP282" s="1" t="s">
+        <v>2082</v>
+      </c>
+      <c r="AQ282" s="1" t="s">
+        <v>2083</v>
+      </c>
+      <c r="AR282" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS282" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AT282" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AU282" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV282" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW282" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AX282" s="1" t="s">
+        <v>2084</v>
+      </c>
+      <c r="AY282" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ282" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BA282" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB282" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC282" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD282" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE282" s="1" t="s">
+        <v>2085</v>
+      </c>
+      <c r="BF282" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG282" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH282" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI282" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ282" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK282" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL282" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM282" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN282" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO282" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP282" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ282" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR282" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS282" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT282" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU282" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV282" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW282" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX282" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY282" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ282" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA282" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB282" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC282" s="1" t="s">
+        <v>2086</v>
+      </c>
+      <c r="CD282" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE282" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF282" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG282" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH282" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI282" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ282" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CK282" s="1" t="s">
+        <v>2087</v>
+      </c>
+      <c r="CL282" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM282" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN282" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO282" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP282" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="283" spans="1:94">
+      <c r="A283" s="1" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H283" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I283" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J283" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L283" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M283" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O283" s="1" t="s">
+        <v>2090</v>
+      </c>
+      <c r="P283" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q283" s="1" t="s">
+        <v>1982</v>
+      </c>
+      <c r="R283" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S283" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="T283" s="1" t="s">
+        <v>2180</v>
+      </c>
+      <c r="U283" s="1" t="s">
+        <v>2091</v>
+      </c>
+      <c r="V283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W283" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X283" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC283" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD283" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE283" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF283" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG283" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH283" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI283" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ283" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL283" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM283" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN283" s="1" t="s">
+        <v>2092</v>
+      </c>
+      <c r="AO283" s="1" t="s">
+        <v>2093</v>
+      </c>
+      <c r="AP283" s="1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AQ283" s="1" t="s">
+        <v>2095</v>
+      </c>
+      <c r="AR283" s="1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="AS283" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT283" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA283" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC283" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE283" s="1" t="s">
+        <v>2096</v>
+      </c>
+      <c r="BF283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL283" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="BM283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN283" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BO283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP283" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ283" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR283" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU283" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV283" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW283" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY283" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BZ283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC283" s="1" t="s">
+        <v>2097</v>
+      </c>
+      <c r="CD283" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI283" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP283" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="284" spans="1:94">
+      <c r="A284" s="1" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H284" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I284" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J284" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K284" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L284" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M284" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N284" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O284" s="1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="P284" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q284" s="1" t="s">
+        <v>2023</v>
+      </c>
+      <c r="R284" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S284" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="T284" s="3" t="s">
+        <v>1767</v>
+      </c>
+      <c r="U284" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="V284" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W284" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X284" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y284" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z284" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA284" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB284" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC284" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD284" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE284" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF284" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG284" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH284" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI284" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ284" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK284" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL284" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM284" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN284" s="1" t="s">
+        <v>2100</v>
+      </c>
+      <c r="AO284" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AP284" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="AQ284" s="1" t="s">
+        <v>1867</v>
+      </c>
+      <c r="AR284" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="AS284" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT284" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU284" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV284" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW284" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX284" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY284" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ284" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA284" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB284" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC284" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD284" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE284" s="1" t="s">
+        <v>2101</v>
+      </c>
+      <c r="BF284" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BG284" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BH284" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI284" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ284" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK284" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL284" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM284" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BN284" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BO284" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP284" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BQ284" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR284" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS284" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT284" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU284" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV284" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW284" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="BX284" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY284" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BZ284" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA284" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB284" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC284" s="1" t="s">
+        <v>2102</v>
+      </c>
+      <c r="CD284" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CE284" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF284" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG284" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH284" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI284" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ284" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK284" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL284" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM284" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN284" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO284" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP284" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="285" spans="1:94">
+      <c r="A285" s="1" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G285" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H285" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I285" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J285" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K285" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L285" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M285" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N285" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O285" s="1" t="s">
+        <v>2128</v>
+      </c>
+      <c r="P285" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q285" s="1" t="s">
+        <v>2017</v>
+      </c>
+      <c r="R285" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S285" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T285" s="3" t="s">
+        <v>1768</v>
+      </c>
+      <c r="U285" s="1" t="s">
+        <v>2170</v>
+      </c>
+      <c r="V285" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W285" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X285" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y285" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z285" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA285" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB285" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC285" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD285" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE285" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF285" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG285" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH285" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI285" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ285" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK285" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL285" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM285" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN285" s="1" t="s">
+        <v>2171</v>
+      </c>
+      <c r="AO285" s="1" t="s">
+        <v>2172</v>
+      </c>
+      <c r="AP285" s="1" t="s">
+        <v>2173</v>
+      </c>
+      <c r="AQ285" s="1" t="s">
+        <v>2174</v>
+      </c>
+      <c r="AR285" s="1" t="s">
+        <v>2173</v>
+      </c>
+      <c r="AS285" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT285" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU285" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AV285" s="1" t="s">
+        <v>2175</v>
+      </c>
+      <c r="AW285" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX285" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY285" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ285" s="1" t="s">
+        <v>2176</v>
+      </c>
+      <c r="BA285" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB285" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="BC285" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD285" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BE285" s="1" t="s">
+        <v>2178</v>
+      </c>
+      <c r="BF285" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG285" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH285" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI285" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ285" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK285" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL285" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM285" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN285" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BO285" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP285" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ285" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR285" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS285" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT285" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU285" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV285" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW285" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BX285" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY285" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ285" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA285" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CB285" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC285" s="1" t="s">
+        <v>2179</v>
+      </c>
+      <c r="CD285" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE285" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF285" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG285" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH285" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI285" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ285" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK285" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL285" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM285" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN285" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO285" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP285" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:CP241">
-    <sortState ref="A2:CP241">
-      <sortCondition ref="C1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:CP285"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assurance.xlsx
+++ b/assurance.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26707" uniqueCount="2181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28493" uniqueCount="2352">
   <si>
     <t>Codice</t>
   </si>
@@ -6560,6 +6560,519 @@
   </si>
   <si>
     <t>QUADARELLA ANDREA</t>
+  </si>
+  <si>
+    <t>TT1004692082</t>
+  </si>
+  <si>
+    <t>92164623</t>
+  </si>
+  <si>
+    <t>18/08/2025</t>
+  </si>
+  <si>
+    <t>18/08/2025 12:00</t>
+  </si>
+  <si>
+    <t>18/08/2025 13:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081681925490 </t>
+  </si>
+  <si>
+    <t>SWADW5041428454</t>
+  </si>
+  <si>
+    <t>093114723233</t>
+  </si>
+  <si>
+    <t>17/08/2025 18:21</t>
+  </si>
+  <si>
+    <t>18/08/2025 12:21</t>
+  </si>
+  <si>
+    <t>17/08/2025 11:30</t>
+  </si>
+  <si>
+    <t>16/08/2025 11:30</t>
+  </si>
+  <si>
+    <t>sostituita prima presa testato con l'utente codice collaudo tk202508160067569849</t>
+  </si>
+  <si>
+    <t>ASSENZA DI PORTANTE **CPE_SN:S192V06002746**</t>
+  </si>
+  <si>
+    <t>TT1004692349</t>
+  </si>
+  <si>
+    <t>92165990</t>
+  </si>
+  <si>
+    <t>18/08/2025 16:00</t>
+  </si>
+  <si>
+    <t>18/08/2025 17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081681937143 </t>
+  </si>
+  <si>
+    <t>SWADW5041428898</t>
+  </si>
+  <si>
+    <t>093114728300</t>
+  </si>
+  <si>
+    <t>17/08/2025 19:50</t>
+  </si>
+  <si>
+    <t>18/08/2025 15:37</t>
+  </si>
+  <si>
+    <t>17/08/2025 13:00</t>
+  </si>
+  <si>
+    <t>16/08/2025 13:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eseguito cambio porta vdsl zona 2.28 nuova porta morsettiera 50 testato con l'utente codice collaudo tk202508160067571216 </t>
+  </si>
+  <si>
+    <t>ASSENZA DI PORTANTE **CPE_SN:S182V32015322**</t>
+  </si>
+  <si>
+    <t>TT1004692575</t>
+  </si>
+  <si>
+    <t>92167086</t>
+  </si>
+  <si>
+    <t>18/08/2025 10:00</t>
+  </si>
+  <si>
+    <t>18/08/2025 11:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081681947588 </t>
+  </si>
+  <si>
+    <t>SWADW5041429247</t>
+  </si>
+  <si>
+    <t>093114741485</t>
+  </si>
+  <si>
+    <t>17/08/2025 21:00</t>
+  </si>
+  <si>
+    <t>18/08/2025 11:23</t>
+  </si>
+  <si>
+    <t>17/08/2025 14:12</t>
+  </si>
+  <si>
+    <t>16/08/2025 14:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sostituita Vodafone station causa fulminazione nuova R22050000021479,guasta R19120000083155 testato con l'utente codice collaudo tk202508160067572312 </t>
+  </si>
+  <si>
+    <t>TT1004692607</t>
+  </si>
+  <si>
+    <t>92167215</t>
+  </si>
+  <si>
+    <t>18/08/2025 08:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081681951264 </t>
+  </si>
+  <si>
+    <t>18/08/2025 00:00</t>
+  </si>
+  <si>
+    <t>SWADW5041429444</t>
+  </si>
+  <si>
+    <t>093114721768</t>
+  </si>
+  <si>
+    <t>19/08/2025 20:23</t>
+  </si>
+  <si>
+    <t>18/08/2025 17:24</t>
+  </si>
+  <si>
+    <t>17/08/2025 09:16</t>
+  </si>
+  <si>
+    <t>16/08/2025 14:16</t>
+  </si>
+  <si>
+    <t>rip al box PIN 8127 cc tk202508160067572441</t>
+  </si>
+  <si>
+    <t>TT1004692865</t>
+  </si>
+  <si>
+    <t>92168690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081681958403 </t>
+  </si>
+  <si>
+    <t>SWADW5041429737</t>
+  </si>
+  <si>
+    <t>093114746892</t>
+  </si>
+  <si>
+    <t>17/08/2025 22:45</t>
+  </si>
+  <si>
+    <t>18/08/2025 11:39</t>
+  </si>
+  <si>
+    <t>17/08/2025 15:56</t>
+  </si>
+  <si>
+    <t>16/08/2025 15:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sostituita Vodafone station causa fulminazione nuova R21070000035953 guasta R21090000000127 più eseguito cambio porta vdsl zona 2.32 nuova porta morsettiera 18 testato con l'utente codice collaudo tk202508160067573915 </t>
+  </si>
+  <si>
+    <t>TT1004693156</t>
+  </si>
+  <si>
+    <t>92170246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081681976589 </t>
+  </si>
+  <si>
+    <t>SWADW5041430304</t>
+  </si>
+  <si>
+    <t>093114754943</t>
+  </si>
+  <si>
+    <t>18/08/2025 01:40</t>
+  </si>
+  <si>
+    <t>18/08/2025 10:18</t>
+  </si>
+  <si>
+    <t>16/08/2025 18:50</t>
+  </si>
+  <si>
+    <t>sostituito modem Wind hub causa fulminazione testato con l'utente codice collaudo tk202508160067575471 -nuovo S210Y19035097, vecchio 223B0F0002268</t>
+  </si>
+  <si>
+    <t>ASSENZA DI PORTANTE **CPE_SN:223B0F0002268**</t>
+  </si>
+  <si>
+    <t>**CPE_SN:S210Y19035097**sostituito modem Wind hub causa fulminazione testato con l'utente codice collaudo tk202508160067575471 -nuovo S210Y19035097, vecchio 223B0F0002268</t>
+  </si>
+  <si>
+    <t>TT1004693676</t>
+  </si>
+  <si>
+    <t>92173050</t>
+  </si>
+  <si>
+    <t>18/08/2025 16:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081782031636 </t>
+  </si>
+  <si>
+    <t>SWADW5041431394</t>
+  </si>
+  <si>
+    <t>093114759396</t>
+  </si>
+  <si>
+    <t>24/08/2025 09:20</t>
+  </si>
+  <si>
+    <t>18/08/2025 16:07</t>
+  </si>
+  <si>
+    <t>18/08/2025 11:30</t>
+  </si>
+  <si>
+    <t>17/08/2025 10:30</t>
+  </si>
+  <si>
+    <t>Eseguito cambio porta vdsl zona 2.28 nuova porta morsettiera 74 testato con l'utente codice collaudo tk202508170067578275</t>
+  </si>
+  <si>
+    <t>TT1004691837</t>
+  </si>
+  <si>
+    <t>92163419</t>
+  </si>
+  <si>
+    <t>AGIONFRIDDO.111927</t>
+  </si>
+  <si>
+    <t>GIONFRIDDO ANDREA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081681913895 </t>
+  </si>
+  <si>
+    <t>SWADW5041428005</t>
+  </si>
+  <si>
+    <t>093114753509</t>
+  </si>
+  <si>
+    <t>23/08/2025 08:55</t>
+  </si>
+  <si>
+    <t>18/08/2025 11:11</t>
+  </si>
+  <si>
+    <t>17/08/2025 11:06</t>
+  </si>
+  <si>
+    <t>16/08/2025 10:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparato al box,FATTE prove con il cliente.Codice collaudo: tk202508160067568646 </t>
+  </si>
+  <si>
+    <t>TT1004692322</t>
+  </si>
+  <si>
+    <t>92165862</t>
+  </si>
+  <si>
+    <t>18/08/2025 14:00</t>
+  </si>
+  <si>
+    <t>19/08/2025 00:08</t>
+  </si>
+  <si>
+    <t>18/08/2025 11:40</t>
+  </si>
+  <si>
+    <t>16/08/2025 12:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eseguito cambio coppia secondaria zona 1.07. Vecchia box 21d1 coppia 3. Nuova box 21d1 coppia 8 Codice collaudo: tk202508160067571088 </t>
+  </si>
+  <si>
+    <t>TT1004692775</t>
+  </si>
+  <si>
+    <t>92167985</t>
+  </si>
+  <si>
+    <t>18/08/2025 15:00</t>
+  </si>
+  <si>
+    <t>18/08/2025 15:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOGNO SPOSA S.R.L. </t>
+  </si>
+  <si>
+    <t>CBF001028522474</t>
+  </si>
+  <si>
+    <t>0931943634</t>
+  </si>
+  <si>
+    <t>18/08/2025 14:55</t>
+  </si>
+  <si>
+    <t>16/08/2025 15:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparato al box Codice Collaudo: tk202508160067573211 </t>
+  </si>
+  <si>
+    <t>TT1004695693</t>
+  </si>
+  <si>
+    <t>92184581</t>
+  </si>
+  <si>
+    <t>18/08/2025 19:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081882139901 </t>
+  </si>
+  <si>
+    <t>SWADW5041434557</t>
+  </si>
+  <si>
+    <t>093113773019</t>
+  </si>
+  <si>
+    <t>19/08/2025 09:58</t>
+  </si>
+  <si>
+    <t>18/08/2025 17:50</t>
+  </si>
+  <si>
+    <t>19/08/2025 11:06</t>
+  </si>
+  <si>
+    <t>18/08/2025 11:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riparato in armadio,fatte prove con l'utente. Certificato con supporto vodafone pin 4513097 Codice collaudo: tk202508180067589806 </t>
+  </si>
+  <si>
+    <t>TT1004691398</t>
+  </si>
+  <si>
+    <t>92160613</t>
+  </si>
+  <si>
+    <t>18/08/2025 18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORRADO FRASCA </t>
+  </si>
+  <si>
+    <t>CRV001028555286</t>
+  </si>
+  <si>
+    <t>0931587270</t>
+  </si>
+  <si>
+    <t>18/08/2025 23:59</t>
+  </si>
+  <si>
+    <t>18/08/2025 16:09</t>
+  </si>
+  <si>
+    <t>15/08/2025 18:30</t>
+  </si>
+  <si>
+    <t>Sostituzione CPE in garanzia guasta elettricamente Codice collaudo: tk202508150067565840</t>
+  </si>
+  <si>
+    <t>TT1004691507</t>
+  </si>
+  <si>
+    <t>92161224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOMENICO SALERNO </t>
+  </si>
+  <si>
+    <t>CRV000102291151</t>
+  </si>
+  <si>
+    <t>0931962429</t>
+  </si>
+  <si>
+    <t>18/08/2025 17:20</t>
+  </si>
+  <si>
+    <t>15/08/2025 20:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sostituito modem tim in garanzia + eseguito cambio porta vecchia C1/21 nuova C1/60 Codice collaudo: tk202508150067566451 </t>
+  </si>
+  <si>
+    <t>TT1004693833</t>
+  </si>
+  <si>
+    <t>92173783</t>
+  </si>
+  <si>
+    <t>18/08/2025 14:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081782042721 </t>
+  </si>
+  <si>
+    <t>SWADW5041431716</t>
+  </si>
+  <si>
+    <t>093114749703</t>
+  </si>
+  <si>
+    <t>24/08/2025 11:13</t>
+  </si>
+  <si>
+    <t>18/08/2025 14:31</t>
+  </si>
+  <si>
+    <t>18/08/2025 13:20</t>
+  </si>
+  <si>
+    <t>17/08/2025 12:20</t>
+  </si>
+  <si>
+    <t>Riparato al box eseguita prova telefonica Codice collaudo: tk202508170067579008</t>
+  </si>
+  <si>
+    <t>TT1004694108</t>
+  </si>
+  <si>
+    <t>92174745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081782053695 </t>
+  </si>
+  <si>
+    <t>SWADW5041432195</t>
+  </si>
+  <si>
+    <t>093114754977</t>
+  </si>
+  <si>
+    <t>18/08/2025 21:15</t>
+  </si>
+  <si>
+    <t>18/08/2025 09:26</t>
+  </si>
+  <si>
+    <t>17/08/2025 14:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occorre sostituire CPE guasta elettricamente Codice collaudo: tk202508170067579970 </t>
+  </si>
+  <si>
+    <t>TT1004694474</t>
+  </si>
+  <si>
+    <t>92176465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tk2025081782077564 </t>
+  </si>
+  <si>
+    <t>SWADW5041432967</t>
+  </si>
+  <si>
+    <t>093114732492</t>
+  </si>
+  <si>
+    <t>24/08/2025 18:20</t>
+  </si>
+  <si>
+    <t>18/08/2025 17:27</t>
+  </si>
+  <si>
+    <t>19/08/2025 19:30</t>
+  </si>
+  <si>
+    <t>17/08/2025 19:30</t>
+  </si>
+  <si>
+    <t>Riparato in prima presa eseguita prova telefonica Codice collaudo: tk202508170067581690</t>
   </si>
 </sst>
 </file>
@@ -6902,10 +7415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP285"/>
+  <dimension ref="A1:CP304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
+      <selection activeCell="C262" sqref="C262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -87693,6 +88206,5402 @@
         <v>99</v>
       </c>
     </row>
+    <row r="286" spans="1:94">
+      <c r="A286" s="1" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>2182</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G286" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H286" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I286" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J286" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K286" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L286" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M286" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N286" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O286" s="1" t="s">
+        <v>2184</v>
+      </c>
+      <c r="P286" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q286" s="1" t="s">
+        <v>2185</v>
+      </c>
+      <c r="R286" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S286" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T286" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U286" s="1" t="s">
+        <v>2186</v>
+      </c>
+      <c r="V286" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W286" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X286" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y286" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z286" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA286" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB286" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC286" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD286" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE286" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF286" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG286" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH286" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI286" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ286" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK286" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL286" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM286" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN286" s="1" t="s">
+        <v>2187</v>
+      </c>
+      <c r="AO286" s="1" t="s">
+        <v>2188</v>
+      </c>
+      <c r="AP286" s="1" t="s">
+        <v>2189</v>
+      </c>
+      <c r="AQ286" s="1" t="s">
+        <v>2190</v>
+      </c>
+      <c r="AR286" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS286" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT286" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU286" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV286" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW286" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AX286" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="AY286" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ286" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="BA286" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB286" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC286" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD286" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE286" s="1" t="s">
+        <v>2192</v>
+      </c>
+      <c r="BF286" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG286" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH286" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI286" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ286" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK286" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL286" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM286" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN286" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO286" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP286" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ286" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR286" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS286" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT286" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU286" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV286" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW286" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BX286" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY286" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ286" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CA286" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB286" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC286" s="1" t="s">
+        <v>2193</v>
+      </c>
+      <c r="CD286" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE286" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF286" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG286" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH286" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI286" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ286" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CK286" s="1" t="s">
+        <v>2194</v>
+      </c>
+      <c r="CL286" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM286" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN286" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO286" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP286" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="287" spans="1:94">
+      <c r="A287" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G287" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H287" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I287" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J287" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K287" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L287" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M287" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N287" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O287" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="P287" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q287" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="R287" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S287" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T287" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U287" s="1" t="s">
+        <v>2199</v>
+      </c>
+      <c r="V287" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W287" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X287" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y287" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z287" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA287" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB287" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC287" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD287" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE287" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF287" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG287" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH287" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI287" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ287" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK287" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL287" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM287" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN287" s="1" t="s">
+        <v>2200</v>
+      </c>
+      <c r="AO287" s="1" t="s">
+        <v>2201</v>
+      </c>
+      <c r="AP287" s="1" t="s">
+        <v>2202</v>
+      </c>
+      <c r="AQ287" s="1" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AR287" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS287" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT287" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AU287" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV287" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW287" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AX287" s="1" t="s">
+        <v>2204</v>
+      </c>
+      <c r="AY287" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ287" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA287" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB287" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC287" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD287" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE287" s="1" t="s">
+        <v>2205</v>
+      </c>
+      <c r="BF287" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG287" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH287" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI287" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ287" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK287" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL287" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM287" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN287" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO287" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP287" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ287" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR287" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS287" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT287" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU287" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV287" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW287" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BX287" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY287" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ287" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CA287" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB287" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC287" s="1" t="s">
+        <v>2206</v>
+      </c>
+      <c r="CD287" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE287" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF287" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG287" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH287" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI287" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ287" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CK287" s="1" t="s">
+        <v>2207</v>
+      </c>
+      <c r="CL287" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM287" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN287" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO287" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP287" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="288" spans="1:94">
+      <c r="A288" s="1" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H288" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I288" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J288" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K288" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L288" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M288" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N288" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O288" s="1" t="s">
+        <v>2210</v>
+      </c>
+      <c r="P288" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q288" s="1" t="s">
+        <v>2211</v>
+      </c>
+      <c r="R288" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S288" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T288" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U288" s="1" t="s">
+        <v>2212</v>
+      </c>
+      <c r="V288" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W288" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X288" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y288" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z288" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA288" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB288" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC288" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD288" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE288" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF288" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG288" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH288" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI288" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ288" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK288" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL288" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM288" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN288" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="AO288" s="1" t="s">
+        <v>2214</v>
+      </c>
+      <c r="AP288" s="1" t="s">
+        <v>2215</v>
+      </c>
+      <c r="AQ288" s="1" t="s">
+        <v>2216</v>
+      </c>
+      <c r="AR288" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS288" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT288" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AU288" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV288" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW288" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AX288" s="1" t="s">
+        <v>2217</v>
+      </c>
+      <c r="AY288" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ288" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA288" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB288" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC288" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD288" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE288" s="1" t="s">
+        <v>2218</v>
+      </c>
+      <c r="BF288" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG288" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH288" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI288" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ288" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK288" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL288" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM288" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN288" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO288" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP288" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ288" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR288" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS288" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT288" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU288" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV288" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW288" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BX288" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY288" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ288" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA288" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB288" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC288" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="CD288" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE288" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF288" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG288" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH288" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI288" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ288" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK288" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL288" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM288" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN288" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="CO288" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP288" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="289" spans="1:94">
+      <c r="A289" s="1" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>2221</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H289" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I289" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J289" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K289" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L289" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M289" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N289" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O289" s="1" t="s">
+        <v>2222</v>
+      </c>
+      <c r="P289" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q289" s="1" t="s">
+        <v>2185</v>
+      </c>
+      <c r="R289" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S289" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T289" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U289" s="1" t="s">
+        <v>2223</v>
+      </c>
+      <c r="V289" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W289" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X289" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y289" s="1" t="s">
+        <v>2224</v>
+      </c>
+      <c r="Z289" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA289" s="1" t="s">
+        <v>2224</v>
+      </c>
+      <c r="AB289" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC289" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD289" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE289" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF289" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG289" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH289" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI289" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ289" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK289" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL289" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM289" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN289" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AO289" s="1" t="s">
+        <v>2226</v>
+      </c>
+      <c r="AP289" s="1" t="s">
+        <v>2227</v>
+      </c>
+      <c r="AQ289" s="1" t="s">
+        <v>2228</v>
+      </c>
+      <c r="AR289" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS289" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT289" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU289" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AV289" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AW289" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AX289" s="1" t="s">
+        <v>2229</v>
+      </c>
+      <c r="AY289" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ289" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA289" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB289" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC289" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD289" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE289" s="1" t="s">
+        <v>2230</v>
+      </c>
+      <c r="BF289" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG289" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH289" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI289" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ289" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK289" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL289" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM289" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN289" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO289" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP289" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ289" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR289" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BS289" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT289" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU289" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV289" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW289" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BX289" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY289" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ289" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA289" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB289" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC289" s="1" t="s">
+        <v>2231</v>
+      </c>
+      <c r="CD289" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE289" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF289" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG289" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH289" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI289" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ289" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK289" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL289" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM289" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CN289" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO289" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP289" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="290" spans="1:94">
+      <c r="A290" s="1" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H290" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I290" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J290" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K290" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L290" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M290" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N290" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O290" s="1" t="s">
+        <v>2211</v>
+      </c>
+      <c r="P290" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q290" s="1" t="s">
+        <v>2184</v>
+      </c>
+      <c r="R290" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S290" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T290" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U290" s="1" t="s">
+        <v>2234</v>
+      </c>
+      <c r="V290" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W290" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X290" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y290" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z290" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA290" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB290" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC290" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD290" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE290" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF290" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG290" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH290" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI290" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ290" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK290" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL290" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM290" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN290" s="1" t="s">
+        <v>2235</v>
+      </c>
+      <c r="AO290" s="1" t="s">
+        <v>2236</v>
+      </c>
+      <c r="AP290" s="1" t="s">
+        <v>2237</v>
+      </c>
+      <c r="AQ290" s="1" t="s">
+        <v>2238</v>
+      </c>
+      <c r="AR290" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS290" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT290" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AU290" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV290" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW290" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AX290" s="1" t="s">
+        <v>2239</v>
+      </c>
+      <c r="AY290" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ290" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA290" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB290" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC290" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD290" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE290" s="1" t="s">
+        <v>2240</v>
+      </c>
+      <c r="BF290" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG290" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH290" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI290" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ290" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK290" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL290" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM290" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN290" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO290" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP290" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ290" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR290" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS290" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT290" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU290" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV290" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW290" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BX290" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY290" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ290" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA290" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB290" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC290" s="1" t="s">
+        <v>2241</v>
+      </c>
+      <c r="CD290" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE290" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF290" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG290" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH290" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI290" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ290" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK290" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL290" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM290" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN290" s="1" t="s">
+        <v>2241</v>
+      </c>
+      <c r="CO290" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP290" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="291" spans="1:94">
+      <c r="A291" s="1" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>2243</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H291" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I291" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J291" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K291" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L291" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M291" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N291" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O291" s="1" t="s">
+        <v>2210</v>
+      </c>
+      <c r="P291" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q291" s="1" t="s">
+        <v>2211</v>
+      </c>
+      <c r="R291" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S291" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T291" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U291" s="1" t="s">
+        <v>2244</v>
+      </c>
+      <c r="V291" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W291" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X291" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y291" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z291" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA291" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB291" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC291" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD291" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE291" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF291" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG291" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH291" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI291" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ291" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK291" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL291" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM291" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN291" s="1" t="s">
+        <v>2245</v>
+      </c>
+      <c r="AO291" s="1" t="s">
+        <v>2246</v>
+      </c>
+      <c r="AP291" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="AQ291" s="1" t="s">
+        <v>2248</v>
+      </c>
+      <c r="AR291" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS291" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT291" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AU291" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV291" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW291" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AX291" s="1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="AY291" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ291" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="BA291" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB291" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC291" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD291" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE291" s="1" t="s">
+        <v>2249</v>
+      </c>
+      <c r="BF291" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG291" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH291" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI291" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ291" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK291" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL291" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM291" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN291" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO291" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP291" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ291" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR291" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS291" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT291" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU291" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV291" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW291" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BX291" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY291" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ291" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA291" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB291" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC291" s="1" t="s">
+        <v>2250</v>
+      </c>
+      <c r="CD291" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE291" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF291" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG291" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH291" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI291" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ291" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CK291" s="1" t="s">
+        <v>2251</v>
+      </c>
+      <c r="CL291" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM291" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN291" s="1" t="s">
+        <v>2252</v>
+      </c>
+      <c r="CO291" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP291" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="292" spans="1:94">
+      <c r="A292" s="1" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H292" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I292" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J292" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K292" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L292" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M292" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N292" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O292" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="P292" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q292" s="1" t="s">
+        <v>2255</v>
+      </c>
+      <c r="R292" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S292" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="T292" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U292" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="V292" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W292" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X292" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y292" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z292" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA292" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB292" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC292" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD292" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE292" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF292" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG292" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH292" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI292" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ292" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK292" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL292" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM292" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN292" s="1" t="s">
+        <v>2257</v>
+      </c>
+      <c r="AO292" s="1" t="s">
+        <v>2258</v>
+      </c>
+      <c r="AP292" s="1" t="s">
+        <v>2259</v>
+      </c>
+      <c r="AQ292" s="1" t="s">
+        <v>2260</v>
+      </c>
+      <c r="AR292" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS292" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT292" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AU292" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AV292" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW292" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AX292" s="1" t="s">
+        <v>2261</v>
+      </c>
+      <c r="AY292" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ292" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA292" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB292" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC292" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD292" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE292" s="1" t="s">
+        <v>2262</v>
+      </c>
+      <c r="BF292" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG292" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH292" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI292" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ292" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK292" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL292" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM292" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN292" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO292" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP292" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ292" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR292" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS292" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT292" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU292" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV292" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW292" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX292" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY292" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BZ292" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA292" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB292" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC292" s="1" t="s">
+        <v>2263</v>
+      </c>
+      <c r="CD292" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE292" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF292" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG292" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH292" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI292" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ292" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK292" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL292" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM292" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CN292" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO292" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP292" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="293" spans="1:94">
+      <c r="A293" s="1" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>2265</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H293" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I293" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J293" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K293" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L293" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M293" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N293" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O293" s="1" t="s">
+        <v>2211</v>
+      </c>
+      <c r="P293" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q293" s="1" t="s">
+        <v>2184</v>
+      </c>
+      <c r="R293" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S293" s="1" t="s">
+        <v>2266</v>
+      </c>
+      <c r="T293" s="1" t="s">
+        <v>2267</v>
+      </c>
+      <c r="U293" s="1" t="s">
+        <v>2268</v>
+      </c>
+      <c r="V293" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W293" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X293" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y293" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z293" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA293" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB293" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC293" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD293" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE293" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF293" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG293" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH293" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI293" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ293" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK293" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL293" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM293" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN293" s="1" t="s">
+        <v>2269</v>
+      </c>
+      <c r="AO293" s="1" t="s">
+        <v>2270</v>
+      </c>
+      <c r="AP293" s="1" t="s">
+        <v>2271</v>
+      </c>
+      <c r="AQ293" s="1" t="s">
+        <v>2272</v>
+      </c>
+      <c r="AR293" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS293" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT293" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AU293" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AV293" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW293" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AX293" s="1" t="s">
+        <v>2273</v>
+      </c>
+      <c r="AY293" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ293" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA293" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB293" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC293" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD293" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE293" s="1" t="s">
+        <v>2274</v>
+      </c>
+      <c r="BF293" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG293" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH293" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI293" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ293" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK293" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL293" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM293" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN293" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO293" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP293" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ293" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR293" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS293" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT293" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU293" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV293" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW293" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BX293" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY293" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BZ293" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA293" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB293" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC293" s="1" t="s">
+        <v>2275</v>
+      </c>
+      <c r="CD293" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE293" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF293" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG293" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH293" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI293" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ293" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK293" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL293" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM293" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CN293" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO293" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP293" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="294" spans="1:94">
+      <c r="A294" s="1" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H294" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I294" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J294" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L294" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M294" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O294" s="1" t="s">
+        <v>2184</v>
+      </c>
+      <c r="P294" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q294" s="1" t="s">
+        <v>2278</v>
+      </c>
+      <c r="R294" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S294" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="T294" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="U294" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="V294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W294" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X294" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC294" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD294" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE294" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF294" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG294" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH294" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI294" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ294" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL294" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM294" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN294" s="1" t="s">
+        <v>2100</v>
+      </c>
+      <c r="AO294" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AP294" s="1" t="s">
+        <v>2279</v>
+      </c>
+      <c r="AQ294" s="1" t="s">
+        <v>2280</v>
+      </c>
+      <c r="AR294" s="1" t="s">
+        <v>2279</v>
+      </c>
+      <c r="AS294" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT294" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA294" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC294" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE294" s="1" t="s">
+        <v>2281</v>
+      </c>
+      <c r="BF294" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BG294" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BH294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL294" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM294" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BN294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP294" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BQ294" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR294" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU294" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV294" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW294" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BX294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY294" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BZ294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC294" s="1" t="s">
+        <v>2282</v>
+      </c>
+      <c r="CD294" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CE294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI294" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP294" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="295" spans="1:94">
+      <c r="A295" s="1" t="s">
+        <v>2283</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>2284</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G295" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H295" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I295" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J295" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L295" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M295" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O295" s="1" t="s">
+        <v>2285</v>
+      </c>
+      <c r="P295" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q295" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="R295" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S295" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="T295" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="U295" s="1" t="s">
+        <v>2287</v>
+      </c>
+      <c r="V295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W295" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X295" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC295" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD295" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE295" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF295" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG295" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH295" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI295" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ295" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL295" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM295" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN295" s="1" t="s">
+        <v>2288</v>
+      </c>
+      <c r="AO295" s="1" t="s">
+        <v>2289</v>
+      </c>
+      <c r="AP295" s="1" t="s">
+        <v>2224</v>
+      </c>
+      <c r="AQ295" s="1" t="s">
+        <v>2290</v>
+      </c>
+      <c r="AR295" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="AS295" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT295" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA295" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC295" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BD295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE295" s="1" t="s">
+        <v>2291</v>
+      </c>
+      <c r="BF295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL295" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN295" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BO295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP295" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ295" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR295" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU295" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV295" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW295" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY295" s="1" t="s">
+        <v>1897</v>
+      </c>
+      <c r="BZ295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC295" s="1" t="s">
+        <v>2292</v>
+      </c>
+      <c r="CD295" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI295" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO295" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP295" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="296" spans="1:94">
+      <c r="A296" s="1" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>2294</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G296" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H296" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I296" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J296" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K296" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L296" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M296" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N296" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O296" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="P296" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q296" s="1" t="s">
+        <v>2295</v>
+      </c>
+      <c r="R296" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S296" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="T296" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="U296" s="1" t="s">
+        <v>2296</v>
+      </c>
+      <c r="V296" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W296" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X296" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y296" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z296" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA296" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB296" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC296" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD296" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE296" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF296" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG296" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH296" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI296" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ296" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK296" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL296" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM296" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN296" s="1" t="s">
+        <v>2297</v>
+      </c>
+      <c r="AO296" s="1" t="s">
+        <v>2298</v>
+      </c>
+      <c r="AP296" s="1" t="s">
+        <v>2299</v>
+      </c>
+      <c r="AQ296" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="AR296" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS296" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT296" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU296" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV296" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AW296" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AX296" s="1" t="s">
+        <v>2301</v>
+      </c>
+      <c r="AY296" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ296" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA296" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB296" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC296" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD296" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE296" s="1" t="s">
+        <v>2302</v>
+      </c>
+      <c r="BF296" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG296" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH296" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI296" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ296" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK296" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL296" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM296" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN296" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO296" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP296" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ296" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR296" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS296" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT296" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU296" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV296" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW296" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX296" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY296" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ296" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA296" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB296" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC296" s="1" t="s">
+        <v>2303</v>
+      </c>
+      <c r="CD296" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE296" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF296" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG296" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH296" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI296" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ296" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK296" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL296" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM296" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN296" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO296" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP296" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="297" spans="1:94">
+      <c r="A297" s="1" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H297" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I297" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J297" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L297" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M297" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O297" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="P297" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q297" s="1" t="s">
+        <v>2306</v>
+      </c>
+      <c r="R297" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S297" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="T297" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="U297" s="1" t="s">
+        <v>2307</v>
+      </c>
+      <c r="V297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W297" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X297" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC297" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD297" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE297" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF297" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG297" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH297" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI297" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ297" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL297" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM297" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN297" s="1" t="s">
+        <v>2308</v>
+      </c>
+      <c r="AO297" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="AP297" s="1" t="s">
+        <v>2310</v>
+      </c>
+      <c r="AQ297" s="1" t="s">
+        <v>2311</v>
+      </c>
+      <c r="AR297" s="1" t="s">
+        <v>2310</v>
+      </c>
+      <c r="AS297" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT297" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AU297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA297" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC297" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE297" s="1" t="s">
+        <v>2312</v>
+      </c>
+      <c r="BF297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL297" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="BM297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN297" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BO297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP297" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ297" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR297" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU297" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV297" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW297" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY297" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BZ297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC297" s="1" t="s">
+        <v>2313</v>
+      </c>
+      <c r="CD297" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI297" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO297" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP297" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="298" spans="1:94">
+      <c r="A298" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G298" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H298" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I298" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J298" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L298" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M298" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O298" s="1" t="s">
+        <v>2306</v>
+      </c>
+      <c r="P298" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q298" s="1" t="s">
+        <v>2295</v>
+      </c>
+      <c r="R298" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S298" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="T298" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="U298" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="V298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W298" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X298" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC298" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD298" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE298" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF298" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG298" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH298" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI298" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ298" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL298" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM298" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN298" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="AO298" s="1" t="s">
+        <v>2318</v>
+      </c>
+      <c r="AP298" s="1" t="s">
+        <v>2310</v>
+      </c>
+      <c r="AQ298" s="1" t="s">
+        <v>2319</v>
+      </c>
+      <c r="AR298" s="1" t="s">
+        <v>2310</v>
+      </c>
+      <c r="AS298" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT298" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AU298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA298" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC298" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE298" s="1" t="s">
+        <v>2320</v>
+      </c>
+      <c r="BF298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL298" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN298" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BO298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP298" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ298" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR298" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU298" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV298" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW298" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY298" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BZ298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC298" s="1" t="s">
+        <v>2321</v>
+      </c>
+      <c r="CD298" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI298" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO298" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP298" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="299" spans="1:94">
+      <c r="A299" s="1" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G299" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H299" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I299" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J299" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K299" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L299" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M299" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N299" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O299" s="1" t="s">
+        <v>2324</v>
+      </c>
+      <c r="P299" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q299" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="R299" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S299" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="T299" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="U299" s="1" t="s">
+        <v>2325</v>
+      </c>
+      <c r="V299" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W299" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X299" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y299" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z299" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA299" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB299" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC299" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD299" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE299" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF299" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG299" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH299" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI299" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ299" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK299" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL299" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM299" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN299" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="AO299" s="1" t="s">
+        <v>2327</v>
+      </c>
+      <c r="AP299" s="1" t="s">
+        <v>2328</v>
+      </c>
+      <c r="AQ299" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="AR299" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS299" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AT299" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AU299" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AV299" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AW299" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AX299" s="1" t="s">
+        <v>2330</v>
+      </c>
+      <c r="AY299" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ299" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA299" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB299" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC299" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD299" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE299" s="1" t="s">
+        <v>2331</v>
+      </c>
+      <c r="BF299" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG299" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH299" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI299" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ299" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK299" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL299" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM299" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN299" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO299" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP299" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ299" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR299" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS299" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT299" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU299" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV299" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW299" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX299" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY299" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BZ299" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA299" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB299" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC299" s="1" t="s">
+        <v>2332</v>
+      </c>
+      <c r="CD299" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE299" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF299" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG299" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH299" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI299" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ299" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK299" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL299" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM299" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CN299" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO299" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP299" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="300" spans="1:94">
+      <c r="A300" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>2334</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H300" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I300" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J300" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K300" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L300" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M300" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N300" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O300" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="P300" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q300" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="R300" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S300" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="T300" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="U300" s="1" t="s">
+        <v>2335</v>
+      </c>
+      <c r="V300" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W300" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X300" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y300" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z300" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA300" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB300" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC300" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD300" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE300" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF300" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG300" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH300" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI300" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ300" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK300" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL300" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM300" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN300" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="AO300" s="1" t="s">
+        <v>2337</v>
+      </c>
+      <c r="AP300" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="AQ300" s="1" t="s">
+        <v>2203</v>
+      </c>
+      <c r="AR300" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS300" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT300" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AU300" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AV300" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW300" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AX300" s="1" t="s">
+        <v>2339</v>
+      </c>
+      <c r="AY300" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ300" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA300" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB300" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC300" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD300" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE300" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="BF300" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG300" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH300" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI300" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ300" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK300" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL300" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM300" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN300" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO300" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP300" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ300" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR300" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS300" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT300" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU300" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV300" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW300" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX300" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY300" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ300" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA300" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB300" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC300" s="1" t="s">
+        <v>2341</v>
+      </c>
+      <c r="CD300" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE300" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF300" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG300" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH300" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI300" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ300" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK300" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL300" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM300" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CN300" s="1" t="s">
+        <v>2341</v>
+      </c>
+      <c r="CO300" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP300" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="301" spans="1:94">
+      <c r="A301" s="1" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G301" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H301" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I301" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J301" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K301" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L301" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M301" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N301" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O301" s="1" t="s">
+        <v>2324</v>
+      </c>
+      <c r="P301" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q301" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="R301" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S301" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="T301" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="U301" s="1" t="s">
+        <v>2344</v>
+      </c>
+      <c r="V301" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W301" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X301" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y301" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z301" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA301" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB301" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC301" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD301" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE301" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF301" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG301" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH301" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI301" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ301" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK301" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL301" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM301" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN301" s="1" t="s">
+        <v>2345</v>
+      </c>
+      <c r="AO301" s="1" t="s">
+        <v>2346</v>
+      </c>
+      <c r="AP301" s="1" t="s">
+        <v>2347</v>
+      </c>
+      <c r="AQ301" s="1" t="s">
+        <v>2348</v>
+      </c>
+      <c r="AR301" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS301" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT301" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU301" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV301" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW301" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AX301" s="1" t="s">
+        <v>2349</v>
+      </c>
+      <c r="AY301" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ301" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA301" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB301" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC301" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD301" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE301" s="1" t="s">
+        <v>2350</v>
+      </c>
+      <c r="BF301" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG301" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH301" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI301" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ301" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK301" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL301" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM301" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN301" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO301" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP301" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ301" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR301" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS301" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT301" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU301" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV301" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW301" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX301" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY301" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BZ301" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA301" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB301" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC301" s="1" t="s">
+        <v>2351</v>
+      </c>
+      <c r="CD301" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE301" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF301" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG301" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH301" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI301" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ301" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK301" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL301" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM301" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN301" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO301" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP301" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="302" spans="1:94">
+      <c r="A302" s="2" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>2277</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G302" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H302" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I302" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J302" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K302" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L302" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M302" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N302" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O302" s="2" t="s">
+        <v>2184</v>
+      </c>
+      <c r="P302" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q302" s="2" t="s">
+        <v>2278</v>
+      </c>
+      <c r="R302" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="S302" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="T302" s="1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="U302" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="V302" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="W302" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="X302" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y302" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z302" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA302" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB302" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC302" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD302" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE302" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF302" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG302" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH302" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI302" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ302" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK302" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL302" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM302" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN302" s="2" t="s">
+        <v>2100</v>
+      </c>
+      <c r="AO302" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="AP302" s="2" t="s">
+        <v>2279</v>
+      </c>
+      <c r="AQ302" s="2" t="s">
+        <v>2280</v>
+      </c>
+      <c r="AR302" s="2" t="s">
+        <v>2279</v>
+      </c>
+      <c r="AS302" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT302" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU302" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV302" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW302" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX302" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY302" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ302" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA302" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB302" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC302" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD302" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE302" s="2" t="s">
+        <v>2281</v>
+      </c>
+      <c r="BF302" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BG302" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="BH302" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI302" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ302" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK302" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL302" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM302" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="BN302" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO302" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP302" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="BQ302" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR302" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS302" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT302" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU302" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV302" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW302" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BX302" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY302" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="BZ302" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA302" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB302" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC302" s="2" t="s">
+        <v>2282</v>
+      </c>
+      <c r="CD302" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="CE302" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF302" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG302" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH302" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI302" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ302" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK302" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL302" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM302" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN302" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO302" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP302" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="303" spans="1:94">
+      <c r="A303" s="1" t="s">
+        <v>2283</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>2284</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G303" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H303" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I303" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J303" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L303" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M303" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O303" s="1" t="s">
+        <v>2285</v>
+      </c>
+      <c r="P303" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q303" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="R303" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S303" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="T303" s="1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="U303" s="1" t="s">
+        <v>2287</v>
+      </c>
+      <c r="V303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W303" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X303" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC303" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD303" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE303" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF303" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG303" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH303" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI303" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ303" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL303" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM303" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN303" s="1" t="s">
+        <v>2288</v>
+      </c>
+      <c r="AO303" s="1" t="s">
+        <v>2289</v>
+      </c>
+      <c r="AP303" s="1" t="s">
+        <v>2224</v>
+      </c>
+      <c r="AQ303" s="1" t="s">
+        <v>2290</v>
+      </c>
+      <c r="AR303" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="AS303" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT303" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA303" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC303" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BD303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE303" s="1" t="s">
+        <v>2291</v>
+      </c>
+      <c r="BF303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL303" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN303" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BO303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP303" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ303" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR303" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU303" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV303" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW303" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY303" s="1" t="s">
+        <v>1897</v>
+      </c>
+      <c r="BZ303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC303" s="1" t="s">
+        <v>2292</v>
+      </c>
+      <c r="CD303" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CF303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI303" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CJ303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP303" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="304" spans="1:94">
+      <c r="A304" s="1" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>2294</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G304" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H304" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I304" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J304" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K304" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L304" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M304" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N304" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O304" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="P304" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q304" s="1" t="s">
+        <v>2295</v>
+      </c>
+      <c r="R304" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S304" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="T304" s="1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="U304" s="1" t="s">
+        <v>2296</v>
+      </c>
+      <c r="V304" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W304" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X304" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y304" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z304" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA304" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB304" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC304" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD304" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE304" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF304" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG304" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH304" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI304" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ304" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK304" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL304" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM304" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN304" s="1" t="s">
+        <v>2297</v>
+      </c>
+      <c r="AO304" s="1" t="s">
+        <v>2298</v>
+      </c>
+      <c r="AP304" s="1" t="s">
+        <v>2299</v>
+      </c>
+      <c r="AQ304" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="AR304" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS304" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT304" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU304" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV304" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AW304" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AX304" s="1" t="s">
+        <v>2301</v>
+      </c>
+      <c r="AY304" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ304" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA304" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB304" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC304" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD304" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE304" s="1" t="s">
+        <v>2302</v>
+      </c>
+      <c r="BF304" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG304" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BH304" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BI304" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ304" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK304" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL304" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM304" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN304" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BO304" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BP304" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ304" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BR304" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS304" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BT304" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU304" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV304" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW304" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX304" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY304" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BZ304" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CA304" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB304" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC304" s="1" t="s">
+        <v>2303</v>
+      </c>
+      <c r="CD304" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CE304" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CF304" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG304" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH304" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI304" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CJ304" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CK304" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CL304" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CM304" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CN304" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CO304" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CP304" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:CP285"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
